--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,27 +568,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>2620</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>7/30/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>DORREGO 2398</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>791764848</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Ver fotos para ubicar la columna</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -623,30 +623,30 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.41606</v>
+        <v>-58.437276</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.599935</v>
+        <v>-34.576359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -691,20 +691,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.432085</v>
+        <v>-58.41606</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.60178</v>
+        <v>-34.599935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -714,17 +714,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -763,36 +763,36 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.378613</v>
+        <v>-58.432085</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.6349</v>
+        <v>-34.60178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -817,40 +817,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.425997</v>
+        <v>-58.378613</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.620454</v>
+        <v>-34.6349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -899,36 +899,36 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.428283</v>
+        <v>-58.425997</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.601207</v>
+        <v>-34.620454</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -967,36 +967,36 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.443626</v>
+        <v>-58.428283</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.621032</v>
+        <v>-34.601207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GASCON 93</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>802747622</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,26 +1035,26 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.424288</v>
+        <v>-58.443626</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.611403</v>
+        <v>-34.621032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4534</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>GASCON 93</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802747622</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1103,36 +1103,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.440625</v>
+        <v>-58.424288</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.625499</v>
+        <v>-34.611403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1171,36 +1171,36 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.435755</v>
+        <v>-58.440625</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.621286</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1239,26 +1239,26 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.400156</v>
+        <v>-58.435755</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.631369</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1307,16 +1307,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.402062</v>
+        <v>-58.400156</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.635143</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1326,17 +1326,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1375,36 +1375,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.443039</v>
+        <v>-58.402062</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.612262</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1439,40 +1439,40 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.506348</v>
+        <v>-58.443039</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.607461</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1507,20 +1507,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.371855</v>
+        <v>-58.506348</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.646958</v>
+        <v>-34.607461</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5039</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FOURNIER 3096</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803825117</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1579,26 +1579,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.417789</v>
+        <v>-58.371855</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.65173</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5039</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>FOURNIER 3096</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803825117</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1647,16 +1647,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.403583</v>
+        <v>-58.417789</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.591604</v>
+        <v>-34.65173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DON PEDRO DE MENDOZA AV. 1487</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803969349</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1715,26 +1715,26 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.355981</v>
+        <v>-58.403583</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.637104</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LAFUENTE 391</t>
+          <t>DON PEDRO DE MENDOZA AV. 1487</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804309688</t>
+          <t>803969349</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1783,16 +1783,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.466324</v>
+        <v>-58.355981</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.634983</v>
+        <v>-34.637104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1802,17 +1802,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>LAFUENTE 391</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804309688</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1851,36 +1851,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.439791</v>
+        <v>-58.466324</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.61969</v>
+        <v>-34.634983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1919,36 +1919,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.41849</v>
+        <v>-58.439791</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.624501</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.439751</v>
+        <v>-58.41849</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.609908</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 61</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804876046</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2055,16 +2055,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.436249</v>
+        <v>-58.439751</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.618909</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5631</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MORENO, JOSE MARIA AV. 61</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876046</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.43607</v>
+        <v>-58.436249</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.61926</v>
+        <v>-34.618909</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2191,26 +2191,26 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LAS PALMAS 2620</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804903802</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2255,40 +2255,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.422686</v>
+        <v>-58.375515</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.647038</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>4562</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>LAS PALMAS 2620</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804903802</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2323,40 +2323,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.451203</v>
+        <v>-58.422686</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.576561</v>
+        <v>-34.647038</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2395,36 +2395,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5691</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARQUIMEDES 2390</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805507331</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2463,26 +2463,26 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.427</v>
+        <v>-58.415839</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.644752</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>ARQUIMEDES 2390</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>805507331</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2531,16 +2531,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.376979</v>
+        <v>-58.427</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.630568</v>
+        <v>-34.644752</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>MONTES DE OCA, MANUEL AV. 141</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>805579077</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2599,26 +2599,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.357009</v>
+        <v>-58.376979</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.635878</v>
+        <v>-34.630568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2663,30 +2663,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.369244</v>
+        <v>-58.357009</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.628787</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SALCEDO 2737</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805707268</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2731,40 +2731,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.402664</v>
+        <v>-58.369244</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.631273</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>SALCEDO 2737</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>805707268</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2803,16 +2803,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.419995</v>
+        <v>-58.402664</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.624709</v>
+        <v>-34.631273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,17 +2822,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ZAVALETA 105</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926388</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2871,16 +2871,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.403556</v>
+        <v>-58.419995</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.638135</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5837</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3015</t>
+          <t>ZAVALETA 105</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926394</t>
+          <t>806926388</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2939,16 +2939,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.405926</v>
+        <v>-58.403556</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.637094</v>
+        <v>-34.638135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5837</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2958,17 +2958,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>CASEROS AV. 3015</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926394</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomar columna</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3007,16 +3007,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.429977</v>
+        <v>-58.405926</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.615514</v>
+        <v>-34.637094</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3026,17 +3026,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3075,36 +3075,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3143,16 +3143,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.443196</v>
+        <v>-58.421623</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.618534</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3162,17 +3162,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.434571</v>
+        <v>-58.443196</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.62946</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3230,17 +3230,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3275,40 +3275,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.51232</v>
+        <v>-58.434571</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.595637</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3343,40 +3343,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3411,40 +3411,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TABARE 2714</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044141</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3479,40 +3479,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.435626</v>
+        <v>-58.483927</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.660206</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>TABARE 2714</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044141</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3551,16 +3551,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.501766</v>
+        <v>-58.435626</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.574369</v>
+        <v>-34.660206</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3570,17 +3570,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3619,26 +3619,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3687,16 +3687,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.468182</v>
+        <v>-58.467789</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.685231</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3751,81 +3751,149 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6/2/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MURGUIONDO 3990</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>807129347</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>COLUMNA INCLINADA</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>-58.477944</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.675149</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>5954</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>6/2/2025</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>YAPEYU 938</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>807129372</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="M51" t="n">
         <v>-58.4212</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N51" t="n">
         <v>-34.623575</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,17 +568,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7/30/2024</t>
+          <t>5/8/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DORREGO 2398</t>
+          <t>SANCHEZ, MIGUEL B. AV. 1050</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>791764848</t>
+          <t>788825789</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ver fotos para ubicar la columna</t>
+          <t>Dos postes rajados y una columna fuera de plomo. Ver fotos o pedirme ubicacion, esta en la puerta de un colegio</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -623,40 +623,40 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.437276</v>
+        <v>-58.455394</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.576359</v>
+        <v>-34.542575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>2620</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>7/30/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>DORREGO 2398</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>791764848</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Ver fotos para ubicar la columna</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -691,30 +691,30 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.41606</v>
+        <v>-58.437276</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.599935</v>
+        <v>-34.576359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -759,20 +759,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.432085</v>
+        <v>-58.41606</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.60178</v>
+        <v>-34.599935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,17 +782,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -831,36 +831,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.378613</v>
+        <v>-58.432085</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.6349</v>
+        <v>-34.60178</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -885,40 +885,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.425997</v>
+        <v>-58.378613</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.620454</v>
+        <v>-34.6349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -967,36 +967,36 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.428283</v>
+        <v>-58.425997</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.601207</v>
+        <v>-34.620454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,36 +1035,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.443626</v>
+        <v>-58.428283</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.621032</v>
+        <v>-34.601207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GASCON 93</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>802747622</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1103,26 +1103,26 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.424288</v>
+        <v>-58.443626</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.611403</v>
+        <v>-34.621032</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4534</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>GASCON 93</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802747622</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1171,36 +1171,36 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.440625</v>
+        <v>-58.424288</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.625499</v>
+        <v>-34.611403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1239,36 +1239,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.435755</v>
+        <v>-58.440625</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.621286</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1307,26 +1307,26 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.400156</v>
+        <v>-58.435755</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.631369</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1375,16 +1375,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.402062</v>
+        <v>-58.400156</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.635143</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1443,36 +1443,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.443039</v>
+        <v>-58.402062</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.612262</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1507,40 +1507,40 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.506348</v>
+        <v>-58.443039</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.607461</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1575,20 +1575,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.371855</v>
+        <v>-58.506348</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.646958</v>
+        <v>-34.607461</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5039</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FOURNIER 3096</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803825117</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1647,26 +1647,26 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.417789</v>
+        <v>-58.371855</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.65173</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5039</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>FOURNIER 3096</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803825117</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1715,16 +1715,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.403583</v>
+        <v>-58.417789</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.591604</v>
+        <v>-34.65173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DON PEDRO DE MENDOZA AV. 1487</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803969349</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1783,26 +1783,26 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.355981</v>
+        <v>-58.403583</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.637104</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LAFUENTE 391</t>
+          <t>DON PEDRO DE MENDOZA AV. 1487</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309688</t>
+          <t>803969349</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1851,16 +1851,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.466324</v>
+        <v>-58.355981</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.634983</v>
+        <v>-34.637104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1870,17 +1870,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>LAFUENTE 391</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804309688</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1919,36 +1919,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.439791</v>
+        <v>-58.466324</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.61969</v>
+        <v>-34.634983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1987,36 +1987,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.41849</v>
+        <v>-58.439791</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.624501</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2055,16 +2055,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.439751</v>
+        <v>-58.41849</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.609908</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 61</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876046</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.436249</v>
+        <v>-58.439751</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.618909</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5631</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MORENO, JOSE MARIA AV. 61</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876046</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2191,16 +2191,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.43607</v>
+        <v>-58.436249</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.61926</v>
+        <v>-34.618909</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2259,26 +2259,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LAS PALMAS 2620</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804903802</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2323,40 +2323,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.422686</v>
+        <v>-58.375515</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.647038</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>4562</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>LAS PALMAS 2620</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804903802</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2391,40 +2391,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.451203</v>
+        <v>-58.422686</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.576561</v>
+        <v>-34.647038</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2463,36 +2463,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5691</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARQUIMEDES 2390</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805507331</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2531,26 +2531,26 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.427</v>
+        <v>-58.415839</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.644752</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>ARQUIMEDES 2390</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>805507331</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.376979</v>
+        <v>-58.427</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.630568</v>
+        <v>-34.644752</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>MONTES DE OCA, MANUEL AV. 141</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>805579077</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2667,26 +2667,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.357009</v>
+        <v>-58.376979</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.635878</v>
+        <v>-34.630568</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2731,30 +2731,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.369244</v>
+        <v>-58.357009</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.628787</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SALCEDO 2737</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805707268</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2799,40 +2799,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.402664</v>
+        <v>-58.369244</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.631273</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>SALCEDO 2737</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>805707268</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2871,16 +2871,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.419995</v>
+        <v>-58.402664</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.624709</v>
+        <v>-34.631273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2890,17 +2890,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ZAVALETA 105</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926388</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2939,16 +2939,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.403556</v>
+        <v>-58.419995</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.638135</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5837</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3015</t>
+          <t>ZAVALETA 105</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926394</t>
+          <t>806926388</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3007,16 +3007,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.405926</v>
+        <v>-58.403556</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.637094</v>
+        <v>-34.638135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5837</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3026,17 +3026,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>CASEROS AV. 3015</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926394</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomar columna</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3075,16 +3075,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.429977</v>
+        <v>-58.405926</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.615514</v>
+        <v>-34.637094</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3094,17 +3094,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3143,36 +3143,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.443196</v>
+        <v>-58.421623</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.618534</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3230,17 +3230,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.434571</v>
+        <v>-58.443196</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.62946</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3298,17 +3298,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3343,40 +3343,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.51232</v>
+        <v>-58.434571</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.595637</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3411,40 +3411,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3479,40 +3479,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TABARE 2714</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044141</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3547,40 +3547,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.435626</v>
+        <v>-58.483927</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.660206</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>TABARE 2714</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044141</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3619,16 +3619,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.501766</v>
+        <v>-58.435626</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.574369</v>
+        <v>-34.660206</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3638,17 +3638,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3687,26 +3687,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3755,16 +3755,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.468182</v>
+        <v>-58.467789</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.685231</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3819,81 +3819,149 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>6/2/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MURGUIONDO 3990</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>807129347</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>COLUMNA INCLINADA</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>-58.477944</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-34.675149</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>5954</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>6/2/2025</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>YAPEYU 938</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>807129372</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="M52" t="n">
         <v>-58.4212</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N52" t="n">
         <v>-34.623575</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,27 +568,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5/8/2024</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SANCHEZ, MIGUEL B. AV. 1050</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>788825789</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dos postes rajados y una columna fuera de plomo. Ver fotos o pedirme ubicacion, esta en la puerta de un colegio</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -627,36 +627,36 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.455394</v>
+        <v>-58.41606</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.542575</v>
+        <v>-34.599935</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7/30/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DORREGO 2398</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>791764848</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ver fotos para ubicar la columna</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -695,36 +695,36 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.437276</v>
+        <v>-58.432085</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.576359</v>
+        <v>-34.60178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -759,30 +759,30 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.41606</v>
+        <v>-58.378613</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.599935</v>
+        <v>-34.6349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -817,50 +817,50 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.432085</v>
+        <v>-58.425997</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.60178</v>
+        <v>-34.620454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -895,40 +895,40 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.378613</v>
+        <v>-58.428283</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.6349</v>
+        <v>-34.601207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -967,26 +967,26 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.425997</v>
+        <v>-58.443626</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.620454</v>
+        <v>-34.621032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4534</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>GASCON 93</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>802747622</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1035,36 +1035,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.428283</v>
+        <v>-58.424288</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.601207</v>
+        <v>-34.611403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1103,36 +1103,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.443626</v>
+        <v>-58.440625</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.621032</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GASCON 93</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802747622</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1171,36 +1171,36 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.424288</v>
+        <v>-58.435755</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.611403</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1239,36 +1239,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.440625</v>
+        <v>-58.400156</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.625499</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1307,36 +1307,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.435755</v>
+        <v>-58.402062</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.621286</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1375,36 +1375,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.400156</v>
+        <v>-58.443039</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.631369</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1434,45 +1434,45 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.402062</v>
+        <v>-58.506348</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.635143</v>
+        <v>-34.607461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1511,36 +1511,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.443039</v>
+        <v>-58.371855</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.612262</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5039</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>FOURNIER 3096</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>803825117</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1575,30 +1575,30 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.506348</v>
+        <v>-58.417789</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.607461</v>
+        <v>-34.65173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1647,26 +1647,26 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.371855</v>
+        <v>-58.403583</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.646958</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5039</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FOURNIER 3096</t>
+          <t>DON PEDRO DE MENDOZA AV. 1487</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803825117</t>
+          <t>803969349</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1715,26 +1715,26 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.417789</v>
+        <v>-58.355981</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.65173</v>
+        <v>-34.637104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>LAFUENTE 391</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309688</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1783,36 +1783,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.403583</v>
+        <v>-58.466324</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.591604</v>
+        <v>-34.634983</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DON PEDRO DE MENDOZA AV. 1487</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803969349</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1851,36 +1851,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.355981</v>
+        <v>-58.439791</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.637104</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LAFUENTE 391</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309688</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1919,26 +1919,26 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.466324</v>
+        <v>-58.41849</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.634983</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1987,36 +1987,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.439791</v>
+        <v>-58.439751</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.61969</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>5631</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>MORENO, JOSE MARIA AV. 61</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>804876046</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2055,16 +2055,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.41849</v>
+        <v>-58.436249</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.624501</v>
+        <v>-34.618909</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.439751</v>
+        <v>-58.43607</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.609908</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 61</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876046</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2191,36 +2191,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.436249</v>
+        <v>-58.375515</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.618909</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>4562</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>LAS PALMAS 2620</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804903802</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2255,40 +2255,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.43607</v>
+        <v>-58.422686</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.61926</v>
+        <v>-34.647038</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2327,36 +2327,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.375515</v>
+        <v>-58.451203</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.634393</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LAS PALMAS 2620</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804903802</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2391,40 +2391,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.422686</v>
+        <v>-58.415839</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.647038</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>ARQUIMEDES 2390</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805507331</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2463,36 +2463,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.451203</v>
+        <v>-58.427</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.576561</v>
+        <v>-34.644752</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>MONTES DE OCA, MANUEL AV. 141</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805579077</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2531,26 +2531,26 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.415839</v>
+        <v>-58.376979</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.599291</v>
+        <v>-34.630568</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5691</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ARQUIMEDES 2390</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805507331</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2599,26 +2599,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.427</v>
+        <v>-58.357009</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.644752</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2663,30 +2663,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.376979</v>
+        <v>-58.369244</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.630568</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>SALCEDO 2737</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>805707268</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2735,36 +2735,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.357009</v>
+        <v>-58.402664</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.635878</v>
+        <v>-34.631273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2799,30 +2799,30 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.369244</v>
+        <v>-58.419995</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.628787</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SALCEDO 2737</t>
+          <t>ZAVALETA 105</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805707268</t>
+          <t>806926388</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2871,16 +2871,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.402664</v>
+        <v>-58.403556</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.631273</v>
+        <v>-34.638135</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5837</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2890,17 +2890,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>CASEROS AV. 3015</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>806926394</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar columna</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2939,16 +2939,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.419995</v>
+        <v>-58.405926</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.624709</v>
+        <v>-34.637094</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2958,17 +2958,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ZAVALETA 105</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926388</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3007,16 +3007,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.403556</v>
+        <v>-58.429977</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.638135</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5837</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3026,17 +3026,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3015</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926394</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3075,26 +3075,26 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.405926</v>
+        <v>-58.421623</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.637094</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3143,36 +3143,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.429977</v>
+        <v>-58.443196</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.615514</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.421623</v>
+        <v>-58.434571</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.614541</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3230,17 +3230,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3275,40 +3275,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.443196</v>
+        <v>-58.51232</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.618534</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3347,36 +3347,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.434571</v>
+        <v>-58.483104</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.62946</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3415,16 +3415,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.51232</v>
+        <v>-58.483927</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.595637</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3434,17 +3434,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>TABARE 2714</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044141</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3483,26 +3483,26 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.483104</v>
+        <v>-58.435626</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.572353</v>
+        <v>-34.660206</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3547,30 +3547,30 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.483927</v>
+        <v>-58.501766</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.570689</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TABARE 2714</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044141</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3619,36 +3619,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.435626</v>
+        <v>-58.467789</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.660206</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3687,26 +3687,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.501766</v>
+        <v>-58.468182</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.574369</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3751,20 +3751,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.467789</v>
+        <v>-58.477944</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.68463</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3774,17 +3774,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3823,145 +3823,9 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.468182</v>
+        <v>-58.4212</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.685231</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>5948</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>6/2/2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>MURGUIONDO 3990</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>807129347</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>COLUMNA INCLINADA</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>-58.477944</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-34.675149</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>5954</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>6/2/2025</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>YAPEYU 938</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>807129372</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>-58.4212</v>
-      </c>
-      <c r="N52" t="n">
         <v>-34.623575</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1452,27 +1452,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>5979</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>CHILAVERT, MARTINIANO, CORONEL 3114</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803608474</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.371855</v>
+        <v>-58.444984</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.646958</v>
+        <v>-34.659504</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5039</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FOURNIER 3096</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803825117</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1579,26 +1579,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.417789</v>
+        <v>-58.371855</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.65173</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5039</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>FOURNIER 3096</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803825117</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1647,16 +1647,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.403583</v>
+        <v>-58.417789</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.591604</v>
+        <v>-34.65173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DON PEDRO DE MENDOZA AV. 1487</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803969349</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1715,26 +1715,26 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.355981</v>
+        <v>-58.403583</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.637104</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LAFUENTE 391</t>
+          <t>DON PEDRO DE MENDOZA AV. 1487</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804309688</t>
+          <t>803969349</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1783,16 +1783,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.466324</v>
+        <v>-58.355981</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.634983</v>
+        <v>-34.637104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1802,17 +1802,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>LAFUENTE 391</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804309688</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1851,36 +1851,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.439791</v>
+        <v>-58.466324</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.61969</v>
+        <v>-34.634983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1919,36 +1919,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.41849</v>
+        <v>-58.439791</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.624501</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.439751</v>
+        <v>-58.41849</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.609908</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 61</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804876046</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2055,16 +2055,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.436249</v>
+        <v>-58.439751</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.618909</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5631</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MORENO, JOSE MARIA AV. 61</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876046</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.43607</v>
+        <v>-58.436249</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.61926</v>
+        <v>-34.618909</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2191,26 +2191,26 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LAS PALMAS 2620</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804903802</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2255,40 +2255,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.422686</v>
+        <v>-58.375515</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.647038</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>4562</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>LAS PALMAS 2620</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804903802</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2323,40 +2323,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.451203</v>
+        <v>-58.422686</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.576561</v>
+        <v>-34.647038</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2395,36 +2395,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5691</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARQUIMEDES 2390</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805507331</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2463,26 +2463,26 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.427</v>
+        <v>-58.415839</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.644752</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5691</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>ARQUIMEDES 2390</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>805507331</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2531,16 +2531,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.376979</v>
+        <v>-58.427</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.630568</v>
+        <v>-34.644752</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>MONTES DE OCA, MANUEL AV. 141</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>805579077</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2599,26 +2599,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.357009</v>
+        <v>-58.376979</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.635878</v>
+        <v>-34.630568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2663,30 +2663,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.369244</v>
+        <v>-58.357009</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.628787</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SALCEDO 2737</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805707268</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2731,40 +2731,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.402664</v>
+        <v>-58.369244</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.631273</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>SALCEDO 2737</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>805707268</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2803,16 +2803,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.419995</v>
+        <v>-58.402664</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.624709</v>
+        <v>-34.631273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,17 +2822,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ZAVALETA 105</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926388</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2871,16 +2871,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.403556</v>
+        <v>-58.419995</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.638135</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5837</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3015</t>
+          <t>ZAVALETA 105</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926394</t>
+          <t>806926388</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2939,16 +2939,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.405926</v>
+        <v>-58.403556</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.637094</v>
+        <v>-34.638135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5837</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2958,17 +2958,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>CASEROS AV. 3015</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926394</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomar columna</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3007,16 +3007,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.429977</v>
+        <v>-58.405926</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.615514</v>
+        <v>-34.637094</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3026,17 +3026,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3075,36 +3075,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3143,16 +3143,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.443196</v>
+        <v>-58.421623</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.618534</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3162,17 +3162,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.434571</v>
+        <v>-58.443196</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.62946</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3230,17 +3230,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3275,40 +3275,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.51232</v>
+        <v>-58.434571</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.595637</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3343,40 +3343,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3411,40 +3411,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TABARE 2714</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044141</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3479,40 +3479,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.435626</v>
+        <v>-58.483927</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.660206</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>TABARE 2714</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044141</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3551,16 +3551,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.501766</v>
+        <v>-58.435626</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.574369</v>
+        <v>-34.660206</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3570,17 +3570,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3619,26 +3619,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3687,16 +3687,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.468182</v>
+        <v>-58.467789</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.685231</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3751,82 +3751,418 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6/2/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MURGUIONDO 3990</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>807129347</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>COLUMNA INCLINADA</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>-58.477944</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.675149</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>5954</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>6/2/2025</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>YAPEYU 938</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>807129372</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>-58.4212</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N51" t="n">
         <v>-34.623575</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3715</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>EL SERENO 358</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>807168098</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>-58.487371</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-34.640099</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>5997</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MARMOL, JOSE 256</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>807187768</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>-58.425845</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-34.616562</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">807187860 </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Av. San Juan 3960</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>807187860</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>807187874</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Corvalan 4348</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>807187874</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Colocar columna barrio papa francis contactar a inspector Matias Tapia 1171744701 para el ingreso al barrio ya que el esta en obra en el lugar</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.462456</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.674961</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1928,27 +1928,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1987,36 +1987,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.41849</v>
+        <v>-58.425764</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.624501</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2055,16 +2055,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.439751</v>
+        <v>-58.41849</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.609908</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 61</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876046</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.436249</v>
+        <v>-58.439751</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.618909</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5631</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MORENO, JOSE MARIA AV. 61</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876046</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2191,16 +2191,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.43607</v>
+        <v>-58.436249</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.61926</v>
+        <v>-34.618909</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2259,26 +2259,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LAS PALMAS 2620</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804903802</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2323,40 +2323,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.422686</v>
+        <v>-58.375515</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.647038</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>4562</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>LAS PALMAS 2620</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804903802</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2391,40 +2391,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.451203</v>
+        <v>-58.422686</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.576561</v>
+        <v>-34.647038</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2463,36 +2463,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5691</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARQUIMEDES 2390</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805507331</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.427</v>
+        <v>-58.415839</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.644752</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="32">
@@ -2676,27 +2676,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5850</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>BLANCO ENCALADA 5402</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805579030</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2709,11 +2709,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Picada e inclinada</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>1</t>
@@ -2731,30 +2727,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.369244</v>
+        <v>-58.490312</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.628787</v>
+        <v>-34.577914</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SALCEDO 2737</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2764,7 +2760,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805707268</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2775,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2799,40 +2795,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.402664</v>
+        <v>-58.369244</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.631273</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>SALCEDO 2737</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>805707268</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2843,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2871,36 +2867,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.419995</v>
+        <v>-58.402664</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.624709</v>
+        <v>-34.631273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ZAVALETA 105</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926388</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2925,7 +2921,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2939,16 +2935,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.403556</v>
+        <v>-58.469148</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.638135</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5837</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2958,17 +2954,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3015</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926394</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2979,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2993,7 +2989,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3007,16 +3003,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.405926</v>
+        <v>-58.419995</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.637094</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3026,17 +3022,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>ZAVALETA 105</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926388</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3075,16 +3071,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.429977</v>
+        <v>-58.403556</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.615514</v>
+        <v>-34.638135</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3094,17 +3090,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3143,36 +3139,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3183,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3197,7 +3193,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3211,16 +3207,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.443196</v>
+        <v>-58.421623</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.618534</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3230,17 +3226,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3251,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3279,16 +3275,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.434571</v>
+        <v>-58.443196</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.62946</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3298,17 +3294,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3319,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3343,40 +3339,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.51232</v>
+        <v>-58.434571</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.595637</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3387,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3411,40 +3407,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3459,7 +3455,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3469,7 +3465,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3479,40 +3475,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TABARE 2714</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044141</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3523,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3537,7 +3533,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3547,40 +3543,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.435626</v>
+        <v>-58.483927</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.660206</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>TABARE 2714</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044141</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3619,16 +3615,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.501766</v>
+        <v>-58.435626</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.574369</v>
+        <v>-34.660206</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3638,17 +3634,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3687,26 +3683,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3716,7 +3712,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,7 +3727,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3755,16 +3751,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.468182</v>
+        <v>-58.467789</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.685231</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3774,7 +3770,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3784,7 +3780,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3799,7 +3795,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3819,20 +3815,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3842,17 +3838,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3867,7 +3863,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3887,40 +3883,40 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.4212</v>
+        <v>-58.477944</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.623575</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3935,7 +3931,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3945,7 +3941,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3955,20 +3951,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.487371</v>
+        <v>-58.4212</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.640099</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3978,17 +3974,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4003,7 +3999,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4013,7 +4009,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4023,20 +4019,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.425845</v>
+        <v>-58.487371</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.616562</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4046,7 +4042,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4056,7 +4052,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4071,7 +4067,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4094,75 +4090,619 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>-58.425845</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-34.616562</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t xml:space="preserve">807187860 </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6/4/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Av. San Juan 3960</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>807187860</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>807187874</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>6/4/2025</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Corvalan 4348</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>807187874</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>Colocar columna barrio papa francis contactar a inspector Matias Tapia 1171744701 para el ingreso al barrio ya que el esta en obra en el lugar</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>-58.462456</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N56" t="n">
         <v>-34.674961</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6004</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MAZA 181</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>807215439</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Picada coincide con reclamo de cables</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.416477</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.61303</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6007</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>HUMAHUACA 4435</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>807215448</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Picada coincide con reclamo de cables</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.427424</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.601217</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>6008</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>807215455</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-58.426665</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-34.598019</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ESTADO DE PALESTINA 771</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>807215458</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>-58.425478</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-34.601865</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6103</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6/9/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BLANCO ENCALADA 5618</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>807331572</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-58.492581</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-34.579252</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>6102</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6/9/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>BLANCO ENCALADA 5432</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>807331601</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>-58.490558</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-34.57806</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>6101</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6/9/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>BLANCO ENCALADA 5188</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>807331647</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>-58.487379</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-34.57618</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,27 +1520,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1579,16 +1579,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.371855</v>
+        <v>-58.496255</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.646958</v>
+        <v>-34.650599</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5039</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FOURNIER 3096</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803825117</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1647,26 +1647,26 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.417789</v>
+        <v>-58.371855</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.65173</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5039</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>FOURNIER 3096</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803825117</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1715,16 +1715,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.403583</v>
+        <v>-58.417789</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.591604</v>
+        <v>-34.65173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DON PEDRO DE MENDOZA AV. 1487</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803969349</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1783,26 +1783,26 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.355981</v>
+        <v>-58.403583</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.637104</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LAFUENTE 391</t>
+          <t>DON PEDRO DE MENDOZA AV. 1487</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309688</t>
+          <t>803969349</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1851,16 +1851,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.466324</v>
+        <v>-58.355981</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.634983</v>
+        <v>-34.637104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1870,17 +1870,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>LAFUENTE 391</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804309688</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1919,36 +1919,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.439791</v>
+        <v>-58.466324</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.61969</v>
+        <v>-34.634983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1987,36 +1987,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.425764</v>
+        <v>-58.439791</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.604359</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2055,36 +2055,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.41849</v>
+        <v>-58.425764</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.624501</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.439751</v>
+        <v>-58.41849</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.609908</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 61</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876046</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2191,16 +2191,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.436249</v>
+        <v>-58.439751</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.618909</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5631</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MORENO, JOSE MARIA AV. 61</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876046</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2259,16 +2259,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.43607</v>
+        <v>-58.436249</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.61926</v>
+        <v>-34.618909</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2278,17 +2278,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2327,26 +2327,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LAS PALMAS 2620</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804903802</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2391,40 +2391,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.422686</v>
+        <v>-58.375515</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.647038</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>4562</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>LAS PALMAS 2620</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804903802</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2459,40 +2459,40 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.451203</v>
+        <v>-58.422686</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.576561</v>
+        <v>-34.647038</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2531,36 +2531,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.376979</v>
+        <v>-58.415839</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.630568</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>MONTES DE OCA, MANUEL AV. 141</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>805579077</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2667,16 +2667,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.357009</v>
+        <v>-58.376979</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.635878</v>
+        <v>-34.630568</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5850</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BLANCO ENCALADA 5402</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805579030</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2709,7 +2709,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>1</t>
@@ -2731,10 +2735,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.490312</v>
+        <v>-58.357009</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.577914</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="35">
@@ -4504,7 +4508,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6103</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4514,19 +4518,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BLANCO ENCALADA 5618</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>807331572</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
           <t>Optical Power</t>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4563,146 +4563,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.492581</v>
+        <v>-58.440448</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.579252</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>6102</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>BLANCO ENCALADA 5432</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>807331601</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>-58.490558</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-34.57806</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>6101</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>BLANCO ENCALADA 5188</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>807331647</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>-58.487379</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-34.57618</v>
+        <v>-34.611223</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -2200,7 +2200,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 61</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876046</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2259,16 +2259,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.436249</v>
+        <v>-58.43607</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.618909</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2278,17 +2278,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2327,26 +2327,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.43607</v>
+        <v>-58.375515</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.61926</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>4562</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>LAS PALMAS 2620</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804903802</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2391,40 +2391,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.375515</v>
+        <v>-58.422686</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.634393</v>
+        <v>-34.647038</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LAS PALMAS 2620</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804903802</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2459,40 +2459,40 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.422686</v>
+        <v>-58.451203</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.647038</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2531,36 +2531,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.451203</v>
+        <v>-58.415839</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.576561</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>MONTES DE OCA, MANUEL AV. 141</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805579077</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.415839</v>
+        <v>-58.376979</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.599291</v>
+        <v>-34.630568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2667,26 +2667,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.376979</v>
+        <v>-58.357009</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.630568</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2731,30 +2731,30 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.357009</v>
+        <v>-58.369244</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.635878</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>SALCEDO 2737</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805707268</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2799,20 +2799,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.369244</v>
+        <v>-58.402664</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.628787</v>
+        <v>-34.631273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,17 +2822,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SALCEDO 2737</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805707268</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2871,36 +2871,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.402664</v>
+        <v>-58.469148</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.631273</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2939,16 +2939,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.469148</v>
+        <v>-58.419995</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.687883</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2958,17 +2958,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>ZAVALETA 105</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>806926388</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3007,16 +3007,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.419995</v>
+        <v>-58.403556</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.624709</v>
+        <v>-34.638135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3026,17 +3026,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ZAVALETA 105</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926388</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3075,16 +3075,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.403556</v>
+        <v>-58.429977</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.638135</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3094,17 +3094,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3143,36 +3143,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3211,10 +3211,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.421623</v>
+        <v>-58.47888</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.614541</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="42">
@@ -4526,7 +4526,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>807458227</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>Optical Power</t>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4573,6 +4573,70 @@
         <v>-34.611223</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>-477</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6/13/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Castañares 4511</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>807472732</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>-58.470376</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-34.664751</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/1/2024</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CORRALES 1301</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>784676305</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +541,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Sacar la rienda de la plantera</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>1</t>
@@ -549,7 +553,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -557,28 +561,32 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="M2" t="n">
-        <v>-58.423621</v>
+        <v>-58.41606</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.649101</v>
+        <v>-34.599935</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -588,7 +596,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -603,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -613,7 +621,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -623,20 +631,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.41606</v>
+        <v>-58.432085</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.599935</v>
+        <v>-34.60178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -646,17 +654,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -695,36 +703,36 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.432085</v>
+        <v>-58.378613</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.60178</v>
+        <v>-34.6349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -739,7 +747,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -749,40 +757,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.378613</v>
+        <v>-58.425997</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.6349</v>
+        <v>-34.620454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -792,7 +800,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -807,7 +815,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -822,7 +830,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -831,36 +839,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.425997</v>
+        <v>-58.428283</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.620454</v>
+        <v>-34.601207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -875,7 +883,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -890,7 +898,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -899,36 +907,36 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.428283</v>
+        <v>-58.443626</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.601207</v>
+        <v>-34.621032</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4534</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>GASCON 93</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>802747622</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -943,7 +951,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -953,12 +961,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -967,26 +975,26 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.443626</v>
+        <v>-58.424288</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.621032</v>
+        <v>-34.611403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GASCON 93</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -996,7 +1004,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>802747622</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1011,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1021,7 +1029,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1035,36 +1043,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.424288</v>
+        <v>-58.440625</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.611403</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1079,7 +1087,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1094,7 +1102,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1103,36 +1111,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.440625</v>
+        <v>-58.435755</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.625499</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1147,7 +1155,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1162,7 +1170,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1171,26 +1179,26 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.435755</v>
+        <v>-58.400156</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.621286</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1200,7 +1208,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1215,7 +1223,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1230,7 +1238,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1239,16 +1247,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.400156</v>
+        <v>-58.402062</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.631369</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1258,17 +1266,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1283,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1298,7 +1306,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1307,36 +1315,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.402062</v>
+        <v>-58.443039</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.635143</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1351,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1371,40 +1379,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.443039</v>
+        <v>-58.506348</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.612262</v>
+        <v>-34.607461</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5979</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>CHILAVERT, MARTINIANO, CORONEL 3114</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>803608474</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1419,7 +1427,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1439,40 +1447,40 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.506348</v>
+        <v>-58.444984</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.607461</v>
+        <v>-34.659504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5979</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHILAVERT, MARTINIANO, CORONEL 3114</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803608474</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1487,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1511,36 +1519,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.444984</v>
+        <v>-58.496255</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.659504</v>
+        <v>-34.650599</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1555,12 +1563,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1579,26 +1587,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.496255</v>
+        <v>-58.371855</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.650599</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1608,7 +1616,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1647,26 +1655,26 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.371855</v>
+        <v>-58.403583</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.646958</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5039</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FOURNIER 3096</t>
+          <t>DON PEDRO DE MENDOZA AV. 1487</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1676,7 +1684,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803825117</t>
+          <t>803969349</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1691,7 +1699,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1715,36 +1723,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.417789</v>
+        <v>-58.355981</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.65173</v>
+        <v>-34.637104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1759,12 +1767,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1783,36 +1791,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.403583</v>
+        <v>-58.439791</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.591604</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DON PEDRO DE MENDOZA AV. 1487</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803969349</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1827,12 +1835,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1851,36 +1859,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.355981</v>
+        <v>-58.425764</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.637104</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LAFUENTE 391</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309688</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1919,26 +1927,26 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.466324</v>
+        <v>-58.41849</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.634983</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1948,7 +1956,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1963,7 +1971,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1973,7 +1981,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1987,36 +1995,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.439791</v>
+        <v>-58.439751</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.61969</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2031,7 +2039,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2041,7 +2049,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2055,36 +2063,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.425764</v>
+        <v>-58.43607</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.604359</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2123,36 +2131,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.41849</v>
+        <v>-58.375515</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.624501</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2167,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2177,7 +2185,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2191,36 +2199,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.439751</v>
+        <v>-58.451203</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.609908</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2235,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2245,7 +2253,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2259,26 +2267,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.43607</v>
+        <v>-58.415839</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.61926</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MONTES DE OCA, MANUEL AV. 141</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2288,7 +2296,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805579077</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2327,26 +2335,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.375515</v>
+        <v>-58.376979</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.634393</v>
+        <v>-34.630568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LAS PALMAS 2620</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2356,7 +2364,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804903802</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2371,7 +2379,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2391,40 +2399,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.422686</v>
+        <v>-58.357009</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.647038</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2439,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2459,40 +2467,40 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.451203</v>
+        <v>-58.369244</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.576561</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>SALCEDO 2737</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707268</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2531,36 +2539,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.415839</v>
+        <v>-58.402664</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.599291</v>
+        <v>-34.631273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2575,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2599,36 +2607,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.376979</v>
+        <v>-58.469148</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.630568</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2643,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2667,26 +2675,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.357009</v>
+        <v>-58.419995</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.635878</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>ZAVALETA 105</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2696,7 +2704,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>806926388</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2711,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2721,7 +2729,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2731,40 +2739,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.369244</v>
+        <v>-58.403556</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.628787</v>
+        <v>-34.638135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SALCEDO 2737</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805707268</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2779,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2789,7 +2797,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2803,36 +2811,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.402664</v>
+        <v>-58.429977</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.631273</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2847,7 +2855,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2857,7 +2865,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2871,36 +2879,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.469148</v>
+        <v>-58.421623</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.687883</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2915,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2939,36 +2947,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.419995</v>
+        <v>-58.47888</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.624709</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ZAVALETA 105</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926388</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2983,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2993,7 +3001,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3007,36 +3015,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.403556</v>
+        <v>-58.443196</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.638135</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3051,7 +3059,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3061,7 +3069,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3075,36 +3083,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.429977</v>
+        <v>-58.434571</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.615514</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3119,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3129,7 +3137,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3139,40 +3147,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.421623</v>
+        <v>-58.51232</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.614541</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3187,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3211,36 +3219,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.47888</v>
+        <v>-58.483104</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.571108</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3255,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3265,7 +3273,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3275,40 +3283,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.443196</v>
+        <v>-58.483927</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.618534</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>TABARE 2714</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>807044141</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3323,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3346,37 +3354,33 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>-58.434571</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-34.62946</v>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,7 +3395,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3411,40 +3415,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.51232</v>
+        <v>-58.501766</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.595637</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3483,36 +3487,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.483104</v>
+        <v>-58.467789</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.572353</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3527,7 +3531,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3537,7 +3541,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3547,30 +3551,30 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.483927</v>
+        <v>-58.468182</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.570689</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TABARE 2714</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3580,7 +3584,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044141</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3595,7 +3599,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3615,40 +3619,40 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.435626</v>
+        <v>-58.477944</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.660206</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3663,7 +3667,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3687,36 +3691,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.501766</v>
+        <v>-58.4212</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.574369</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3731,7 +3735,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3741,7 +3745,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3751,40 +3755,40 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.467789</v>
+        <v>-58.487371</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.68463</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3799,7 +3803,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3823,36 +3827,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.468182</v>
+        <v>-58.425845</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.685231</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3867,7 +3871,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3887,30 +3891,26 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>-58.477944</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-34.675149</v>
-      </c>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3959,36 +3959,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.4212</v>
+        <v>-58.416477</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.623575</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4023,30 +4023,30 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.487371</v>
+        <v>-58.427424</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.640099</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4095,26 +4095,26 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.425845</v>
+        <v>-58.426665</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.616562</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4162,33 +4162,37 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>-58.425478</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.601865</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>807187874</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Corvalan 4348</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807187874</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4203,7 +4207,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Colocar columna barrio papa francis contactar a inspector Matias Tapia 1171744701 para el ingreso al barrio ya que el esta en obra en el lugar</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4213,7 +4217,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4227,414 +4231,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.462456</v>
+        <v>-58.440448</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.674961</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>6004</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>6/5/2025</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>MAZA 181</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>807215439</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Picada coincide con reclamo de cables</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>-58.416477</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-34.61303</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>6007</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>6/5/2025</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>HUMAHUACA 4435</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>807215448</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Picada coincide con reclamo de cables</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>-58.427424</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-34.601217</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>6008</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>6/5/2025</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>807215455</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>-58.426665</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-34.598019</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>6010</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>6/5/2025</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>ESTADO DE PALESTINA 771</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>807215458</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>-58.425478</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-34.601865</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>6130</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>VALLESE, FELIPE 490</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>807458227</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>-58.440448</v>
-      </c>
-      <c r="N61" t="n">
         <v>-34.611223</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>-477</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>6/13/2025</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Castañares 4511</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>807472732</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>-58.470376</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-34.664751</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -563,30 +563,30 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.41606</v>
+        <v>-58.440448</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.599935</v>
+        <v>-34.611223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -631,40 +631,40 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.432085</v>
+        <v>-58.416477</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.60178</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -699,30 +699,30 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.378613</v>
+        <v>-58.427424</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.6349</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -771,26 +771,26 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.425997</v>
+        <v>-58.426665</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.620454</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -839,36 +839,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.428283</v>
+        <v>-58.425478</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.601207</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -893,40 +893,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.443626</v>
+        <v>-58.487371</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.621032</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GASCON 93</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>802747622</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -975,26 +975,26 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.424288</v>
+        <v>-58.425845</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.611403</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1042,37 +1042,33 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>-58.440625</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-34.625499</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1087,7 +1083,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1102,7 +1098,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1111,36 +1107,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.435755</v>
+        <v>-58.468182</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.621286</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1155,7 +1151,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1170,45 +1166,45 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.400156</v>
+        <v>-58.477944</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.631369</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,7 +1219,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1238,7 +1234,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1247,36 +1243,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.402062</v>
+        <v>-58.4212</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.635143</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,7 +1287,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1315,36 +1311,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.443039</v>
+        <v>-58.501766</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.612262</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,7 +1355,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1379,40 +1375,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.506348</v>
+        <v>-58.467789</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.607461</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5979</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHILAVERT, MARTINIANO, CORONEL 3114</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803608474</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1427,7 +1423,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1451,36 +1447,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.444984</v>
+        <v>-58.483104</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.659504</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1495,7 +1491,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1505,7 +1501,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1515,40 +1511,40 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.496255</v>
+        <v>-58.483927</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.650599</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,12 +1559,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1587,36 +1583,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.371855</v>
+        <v>-58.47888</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.646958</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1631,12 +1627,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1655,36 +1651,36 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.403583</v>
+        <v>-58.443196</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.591604</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DON PEDRO DE MENDOZA AV. 1487</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803969349</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1699,12 +1695,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1723,36 +1719,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.355981</v>
+        <v>-58.434571</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.637104</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1767,7 +1763,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1787,40 +1783,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.439791</v>
+        <v>-58.51232</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.61969</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1835,7 +1831,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1859,36 +1855,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.425764</v>
+        <v>-58.419995</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.604359</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>ZAVALETA 105</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>806926388</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1903,7 +1899,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1913,7 +1909,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1927,26 +1923,26 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.41849</v>
+        <v>-58.403556</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.624501</v>
+        <v>-34.638135</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1956,7 +1952,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,7 +1967,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1995,36 +1991,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.439751</v>
+        <v>-58.429977</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.609908</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2063,26 +2059,26 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.43607</v>
+        <v>-58.421623</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.61926</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>SALCEDO 2737</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2092,7 +2088,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805707268</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2131,36 +2127,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.375515</v>
+        <v>-58.402664</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.634393</v>
+        <v>-34.631273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,7 +2171,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2199,36 +2195,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.451203</v>
+        <v>-58.469148</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.576561</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2243,7 +2239,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2263,14 +2259,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.415839</v>
+        <v>-58.369244</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.599291</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="28">
@@ -2412,27 +2408,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2447,7 +2443,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2467,40 +2463,40 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.369244</v>
+        <v>-58.415839</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.628787</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SALCEDO 2737</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805707268</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2511,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2539,36 +2535,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.402664</v>
+        <v>-58.451203</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.631273</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,7 +2579,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2593,7 +2589,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2607,26 +2603,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.469148</v>
+        <v>-58.439751</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.687883</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2636,7 +2632,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2647,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2661,7 +2657,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2675,26 +2671,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.419995</v>
+        <v>-58.43607</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.624709</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ZAVALETA 105</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2704,7 +2700,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926388</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2715,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2729,7 +2725,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2743,36 +2739,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.403556</v>
+        <v>-58.375515</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.638135</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2783,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2797,7 +2793,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2811,36 +2807,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.429977</v>
+        <v>-58.41849</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.615514</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2855,7 +2851,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2865,7 +2861,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2879,36 +2875,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.421623</v>
+        <v>-58.425764</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.614541</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2919,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2947,36 +2943,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.47888</v>
+        <v>-58.439791</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.571108</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,12 +2987,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3015,36 +3011,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.443196</v>
+        <v>-58.403583</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.618534</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>DON PEDRO DE MENDOZA AV. 1487</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>803969349</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,12 +3055,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3083,36 +3079,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.434571</v>
+        <v>-58.355981</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.62946</v>
+        <v>-34.637104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,12 +3123,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3147,40 +3143,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.51232</v>
+        <v>-58.371855</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.595637</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3191,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3219,36 +3215,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.483104</v>
+        <v>-58.496255</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.572353</v>
+        <v>-34.650599</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5979</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>CHILAVERT, MARTINIANO, CORONEL 3114</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>803608474</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3259,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3273,7 +3269,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3283,40 +3279,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.483927</v>
+        <v>-58.444984</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.570689</v>
+        <v>-34.659504</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TABARE 2714</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044141</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,7 +3327,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3351,36 +3347,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>-58.506348</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-34.607461</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3419,36 +3419,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.501766</v>
+        <v>-58.402062</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.574369</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3487,36 +3487,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.467789</v>
+        <v>-58.443039</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.68463</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3555,36 +3555,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.468182</v>
+        <v>-58.400156</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.685231</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3614,35 +3614,35 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.477944</v>
+        <v>-58.435755</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.675149</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3691,36 +3691,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.4212</v>
+        <v>-58.440625</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.623575</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>4534</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>GASCON 93</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>802747622</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3755,40 +3755,40 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.487371</v>
+        <v>-58.424288</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.640099</v>
+        <v>-34.611403</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3827,26 +3827,26 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.425845</v>
+        <v>-58.443626</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.616562</v>
+        <v>-34.621032</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3894,23 +3894,27 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>-58.428283</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-34.601207</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3920,7 +3924,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3935,7 +3939,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3950,7 +3954,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3959,26 +3963,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.416477</v>
+        <v>-58.425997</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.61303</v>
+        <v>-34.620454</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3988,7 +3992,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4003,7 +4007,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4013,7 +4017,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4023,40 +4027,40 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.427424</v>
+        <v>-58.432085</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.601217</v>
+        <v>-34.60178</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4071,7 +4075,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4081,7 +4085,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4091,30 +4095,30 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.426665</v>
+        <v>-58.378613</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.598019</v>
+        <v>-34.6349</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4124,7 +4128,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4139,7 +4143,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4149,7 +4153,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4159,82 +4163,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.425478</v>
+        <v>-58.41606</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.601865</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>6130</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>VALLESE, FELIPE 490</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>807458227</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>-58.440448</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-34.611223</v>
+        <v>-34.599935</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>4/4/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>784804268</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,22 +543,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -567,36 +567,36 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.440448</v>
+        <v>-58.406882</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.611223</v>
+        <v>-34.588287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -635,36 +635,36 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.416477</v>
+        <v>-58.40589</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.61303</v>
+        <v>-34.584156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -703,26 +703,26 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.427424</v>
+        <v>-58.498448</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.601217</v>
+        <v>-34.595287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -767,40 +767,40 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.426665</v>
+        <v>-58.41606</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.598019</v>
+        <v>-34.599935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -839,36 +839,36 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.425478</v>
+        <v>-58.413803</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.601865</v>
+        <v>-34.590308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -903,40 +903,40 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.487371</v>
+        <v>-58.432085</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.640099</v>
+        <v>-34.60178</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -971,30 +971,30 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.425845</v>
+        <v>-58.378613</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.616562</v>
+        <v>-34.6349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1042,33 +1042,37 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>-58.425997</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-34.620454</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1083,7 +1087,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1107,36 +1111,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.468182</v>
+        <v>-58.428283</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.685231</v>
+        <v>-34.601207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1151,7 +1155,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1166,35 +1170,35 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.477944</v>
+        <v>-58.443626</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.675149</v>
+        <v>-34.621032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>4534</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>1/15/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>GASCON 93</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1204,7 +1208,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>802747622</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1219,7 +1223,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1229,7 +1233,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1243,36 +1247,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.4212</v>
+        <v>-58.424288</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.623575</v>
+        <v>-34.611403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1287,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1311,36 +1315,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.501766</v>
+        <v>-58.440625</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.574369</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1355,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1370,7 +1374,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1379,26 +1383,26 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.467789</v>
+        <v>-58.435755</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.68463</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1408,7 +1412,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1423,7 +1427,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1438,7 +1442,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1447,36 +1451,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.483104</v>
+        <v>-58.400156</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.572353</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1491,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1501,50 +1505,50 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.483927</v>
+        <v>-58.402062</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.570689</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1583,36 +1587,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.47888</v>
+        <v>-58.443039</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.571108</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1627,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1647,40 +1651,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.443196</v>
+        <v>-58.506348</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.618534</v>
+        <v>-34.607461</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5979</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>CHILAVERT, MARTINIANO, CORONEL 3114</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>803608474</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1719,36 +1723,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.434571</v>
+        <v>-58.444984</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.62946</v>
+        <v>-34.659504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1763,7 +1767,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1783,40 +1787,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.51232</v>
+        <v>-58.496255</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.595637</v>
+        <v>-34.650599</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1831,12 +1835,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1855,26 +1859,26 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.419995</v>
+        <v>-58.371855</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.624709</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ZAVALETA 105</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1884,7 +1888,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>806926388</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1899,17 +1903,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1923,36 +1927,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.403556</v>
+        <v>-58.403583</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.638135</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>DON PEDRO DE MENDOZA AV. 1487</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>803969349</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1967,17 +1971,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1991,36 +1995,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.429977</v>
+        <v>-58.355981</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.615514</v>
+        <v>-34.637104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2035,7 +2039,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2045,7 +2049,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2059,36 +2063,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.421623</v>
+        <v>-58.439791</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.614541</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SALCEDO 2737</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>805707268</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2103,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2127,36 +2131,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.402664</v>
+        <v>-58.425764</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.631273</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2171,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2195,36 +2199,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.469148</v>
+        <v>-58.41849</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.687883</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2239,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2249,7 +2253,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2259,40 +2263,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.369244</v>
+        <v>-58.439751</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.628787</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2307,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2317,7 +2321,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2331,26 +2335,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.376979</v>
+        <v>-58.43607</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.630568</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2360,7 +2364,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2399,36 +2403,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.357009</v>
+        <v>-58.375515</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.635878</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2443,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2467,36 +2471,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2511,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2535,36 +2539,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.451203</v>
+        <v>-58.415839</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.576561</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MONTES DE OCA, MANUEL AV. 141</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>805579077</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2579,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2589,7 +2593,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2603,36 +2607,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.439751</v>
+        <v>-58.376979</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.609908</v>
+        <v>-34.630568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2647,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2657,7 +2661,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2671,26 +2675,26 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.43607</v>
+        <v>-58.357009</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.61926</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2700,7 +2704,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2715,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2735,40 +2739,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.375515</v>
+        <v>-58.369244</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.634393</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>SALCEDO 2737</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>805707268</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2807,36 +2811,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.41849</v>
+        <v>-58.402664</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.624501</v>
+        <v>-34.631273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2851,7 +2855,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2875,26 +2879,26 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.425764</v>
+        <v>-58.469148</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.604359</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2904,7 +2908,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2919,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2943,36 +2947,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.439791</v>
+        <v>-58.419995</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.61969</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2987,12 +2991,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3002,7 +3006,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3011,26 +3015,26 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.403583</v>
+        <v>-58.395063</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.591604</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DON PEDRO DE MENDOZA AV. 1487</t>
+          <t>ZAVALETA 105</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3040,7 +3044,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>803969349</t>
+          <t>806926388</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3055,17 +3059,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3079,36 +3083,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.355981</v>
+        <v>-58.403556</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.637104</v>
+        <v>-34.638135</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3123,17 +3127,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3147,36 +3151,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.371855</v>
+        <v>-58.429977</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.646958</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3191,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3201,7 +3205,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3215,36 +3219,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.496255</v>
+        <v>-58.421623</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.650599</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5979</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CHILAVERT, MARTINIANO, CORONEL 3114</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>803608474</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3259,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3283,36 +3287,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.444984</v>
+        <v>-58.47888</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.659504</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3327,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3347,40 +3351,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.506348</v>
+        <v>-58.443196</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.607461</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3395,7 +3399,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3410,7 +3414,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3419,36 +3423,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.402062</v>
+        <v>-58.434571</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.635143</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3463,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3483,30 +3487,30 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.443039</v>
+        <v>-58.51232</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.612262</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3516,7 +3520,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3531,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3546,7 +3550,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3555,36 +3559,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.400156</v>
+        <v>-58.483104</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.631369</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3599,7 +3603,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3609,50 +3613,50 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.435755</v>
+        <v>-58.483927</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.621286</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3667,7 +3671,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3691,36 +3695,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.440625</v>
+        <v>-58.501766</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.625499</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GASCON 93</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>802747622</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3735,7 +3739,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3745,7 +3749,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3759,36 +3763,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.424288</v>
+        <v>-58.467789</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.611403</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3803,7 +3807,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3818,7 +3822,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3827,36 +3831,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.443626</v>
+        <v>-58.468182</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.621032</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3871,7 +3875,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3891,30 +3895,30 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.428283</v>
+        <v>-58.477944</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.601207</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3924,7 +3928,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3939,7 +3943,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3954,7 +3958,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3963,36 +3967,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.425997</v>
+        <v>-58.4212</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.620454</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4007,7 +4011,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4027,40 +4031,40 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.432085</v>
+        <v>-58.487371</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.60178</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4075,7 +4079,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4085,7 +4089,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4095,30 +4099,30 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.378613</v>
+        <v>-58.425845</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.6349</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4128,7 +4132,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4143,7 +4147,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4153,7 +4157,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4163,14 +4167,418 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>-58.41606</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-34.599935</v>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6004</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MAZA 181</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>807215439</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Picada coincide con reclamo de cables</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.416477</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.61303</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6007</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>HUMAHUACA 4435</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>807215448</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Picada coincide con reclamo de cables</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.427424</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.601217</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6008</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>807215455</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.426665</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.598019</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ESTADO DE PALESTINA 771</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>807215458</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-58.425478</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-34.601865</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6130</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6/9/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>VALLESE, FELIPE 490</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>807458227</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>-58.440448</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-34.611223</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6168</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6/17/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>807537512</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-58.422775</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-34.604135</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1188,17 +1188,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/15/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GASCON 93</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802747622</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1247,36 +1247,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.424288</v>
+        <v>-58.440625</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.611403</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1315,36 +1315,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.440625</v>
+        <v>-58.435755</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.625499</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1383,26 +1383,26 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.435755</v>
+        <v>-58.400156</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.621286</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1451,16 +1451,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.400156</v>
+        <v>-58.402062</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.631369</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1470,17 +1470,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1519,36 +1519,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.402062</v>
+        <v>-58.443039</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.635143</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1583,40 +1583,40 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.443039</v>
+        <v>-58.506348</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.612262</v>
+        <v>-34.607461</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1651,40 +1651,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.506348</v>
+        <v>-58.496255</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.607461</v>
+        <v>-34.650599</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5979</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CHILAVERT, MARTINIANO, CORONEL 3114</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803608474</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1723,36 +1723,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.444984</v>
+        <v>-58.371855</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.659504</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1767,12 +1767,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1791,26 +1791,26 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.496255</v>
+        <v>-58.403583</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.650599</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>DON PEDRO DE MENDOZA AV. 1487</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803969349</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1859,36 +1859,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.371855</v>
+        <v>-58.355981</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.646958</v>
+        <v>-34.637104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1927,36 +1927,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.403583</v>
+        <v>-58.439791</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.591604</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DON PEDRO DE MENDOZA AV. 1487</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803969349</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1995,36 +1995,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.355981</v>
+        <v>-58.425764</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.637104</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2063,36 +2063,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.439791</v>
+        <v>-58.41849</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.61969</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2131,36 +2131,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.425764</v>
+        <v>-58.439751</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.604359</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2199,36 +2199,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.41849</v>
+        <v>-58.43607</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.624501</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2267,36 +2267,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.439751</v>
+        <v>-58.451203</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.609908</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2335,26 +2335,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.43607</v>
+        <v>-58.415839</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.61926</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MONTES DE OCA, MANUEL AV. 141</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805579077</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2403,36 +2403,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.375515</v>
+        <v>-58.376979</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.634393</v>
+        <v>-34.630568</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2471,36 +2471,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.451203</v>
+        <v>-58.357009</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.576561</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2535,40 +2535,40 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.415839</v>
+        <v>-58.369244</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.599291</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2607,36 +2607,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.376979</v>
+        <v>-58.469148</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.630568</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2675,36 +2675,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.357009</v>
+        <v>-58.419995</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.635878</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2734,45 +2734,45 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.369244</v>
+        <v>-58.395063</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.628787</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SALCEDO 2737</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805707268</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2811,36 +2811,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.402664</v>
+        <v>-58.429977</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.631273</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2879,36 +2879,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.469148</v>
+        <v>-58.421623</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.687883</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2947,36 +2947,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.419995</v>
+        <v>-58.47888</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.624709</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3015,36 +3015,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.395063</v>
+        <v>-58.443196</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.606257</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ZAVALETA 105</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926388</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3083,36 +3083,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.403556</v>
+        <v>-58.434571</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.638135</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3147,40 +3147,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.429977</v>
+        <v>-58.51232</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.615514</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3219,26 +3219,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.421623</v>
+        <v>-58.483104</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.614541</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3283,40 +3283,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.47888</v>
+        <v>-58.483927</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.571108</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3355,36 +3355,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.443196</v>
+        <v>-58.501766</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.618534</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3423,36 +3423,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.434571</v>
+        <v>-58.467789</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.62946</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3487,40 +3487,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.51232</v>
+        <v>-58.468182</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.595637</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3555,40 +3555,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.483104</v>
+        <v>-58.477944</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.572353</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3623,40 +3623,40 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.483927</v>
+        <v>-58.4212</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.570689</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3691,40 +3691,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.501766</v>
+        <v>-58.487371</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.574369</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3763,36 +3763,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.467789</v>
+        <v>-58.425845</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.68463</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3830,37 +3830,33 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>-58.468182</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-34.685231</v>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3875,7 +3871,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3895,30 +3891,30 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.477944</v>
+        <v>-58.416477</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.675149</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3928,7 +3924,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3943,7 +3939,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3967,36 +3963,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.4212</v>
+        <v>-58.427424</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.623575</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4011,7 +4007,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4021,7 +4017,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4031,30 +4027,30 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.487371</v>
+        <v>-58.426665</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.640099</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4064,7 +4060,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4079,7 +4075,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4103,36 +4099,36 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.425845</v>
+        <v>-58.425478</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.616562</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4147,7 +4143,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4157,7 +4153,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4170,23 +4166,27 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>-58.440448</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.611223</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4235,349 +4235,9 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.416477</v>
+        <v>-58.422775</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.61303</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>6007</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>6/5/2025</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>HUMAHUACA 4435</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>807215448</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Picada coincide con reclamo de cables</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>-58.427424</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-34.601217</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>6008</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>6/5/2025</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>807215455</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>-58.426665</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-34.598019</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>6010</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>6/5/2025</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>ESTADO DE PALESTINA 771</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>807215458</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>-58.425478</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-34.601865</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>6130</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>VALLESE, FELIPE 490</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>807458227</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>-58.440448</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-34.611223</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>6168</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>6/17/2025</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>807537512</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>-58.422775</v>
-      </c>
-      <c r="N61" t="n">
         <v>-34.604135</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2208,27 +2208,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2267,36 +2267,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.451203</v>
+        <v>-58.375515</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.576561</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2335,36 +2335,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2403,16 +2403,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.376979</v>
+        <v>-58.415839</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.630568</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>MONTES DE OCA, MANUEL AV. 141</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>805579077</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2471,26 +2471,26 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.357009</v>
+        <v>-58.376979</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.635878</v>
+        <v>-34.630568</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2535,40 +2535,40 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.369244</v>
+        <v>-58.357009</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.628787</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2603,40 +2603,40 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.469148</v>
+        <v>-58.369244</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.687883</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2675,16 +2675,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.419995</v>
+        <v>-58.469148</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.624709</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2694,17 +2694,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2743,16 +2743,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.395063</v>
+        <v>-58.419995</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.606257</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2811,16 +2811,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.429977</v>
+        <v>-58.395063</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.615514</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2830,17 +2830,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2879,36 +2879,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.47888</v>
+        <v>-58.421623</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.571108</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3015,16 +3015,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.443196</v>
+        <v>-58.47888</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.618534</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3083,16 +3083,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.434571</v>
+        <v>-58.443196</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.62946</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3147,40 +3147,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.51232</v>
+        <v>-58.434571</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.595637</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3215,40 +3215,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3283,30 +3283,30 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3351,20 +3351,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.501766</v>
+        <v>-58.483927</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.574369</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3374,17 +3374,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3423,26 +3423,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3491,16 +3491,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.468182</v>
+        <v>-58.467789</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.685231</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3555,20 +3555,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3578,17 +3578,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3623,40 +3623,40 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.4212</v>
+        <v>-58.477944</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.623575</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3691,20 +3691,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.487371</v>
+        <v>-58.4212</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.640099</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3714,17 +3714,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3759,20 +3759,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.425845</v>
+        <v>-58.487371</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.616562</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3830,23 +3830,27 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>-58.425845</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.616562</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3856,7 +3860,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3871,7 +3875,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3894,17 +3898,13 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>-58.416477</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-34.61303</v>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.427424</v>
+        <v>-58.416477</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.601217</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4031,16 +4031,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.426665</v>
+        <v>-58.427424</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.598019</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4099,36 +4099,36 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.425478</v>
+        <v>-58.426665</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.601865</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4167,77 +4167,145 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.440448</v>
+        <v>-58.425478</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.611223</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>6130</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6/9/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>VALLESE, FELIPE 490</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>807458227</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.440448</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.611223</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>6168</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>6/17/2025</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>807537512</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>Desmonte</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>-58.422775</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N57" t="n">
         <v>-34.604135</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2412,7 +2412,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 141</t>
+          <t>NECOCHEA 1315</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579077</t>
+          <t>805579141</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2471,26 +2471,26 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.376979</v>
+        <v>-58.357009</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.630568</v>
+        <v>-34.635878</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2535,40 +2535,40 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.357009</v>
+        <v>-58.369244</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.635878</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2603,40 +2603,40 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.369244</v>
+        <v>-58.469148</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.628787</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2675,16 +2675,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.469148</v>
+        <v>-58.419995</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.687883</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2694,17 +2694,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2743,16 +2743,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.419995</v>
+        <v>-58.395063</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.624709</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2811,16 +2811,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2830,17 +2830,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2879,36 +2879,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.421623</v>
+        <v>-58.47888</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.614541</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3015,16 +3015,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.47888</v>
+        <v>-58.443196</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.571108</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3083,16 +3083,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.443196</v>
+        <v>-58.434571</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.618534</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3147,40 +3147,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.434571</v>
+        <v>-58.51232</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.62946</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3215,40 +3215,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.51232</v>
+        <v>-58.483104</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.595637</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3283,30 +3283,30 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.483104</v>
+        <v>-58.483927</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.572353</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3351,20 +3351,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.483927</v>
+        <v>-58.501766</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.570689</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3374,17 +3374,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3423,26 +3423,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.501766</v>
+        <v>-58.467789</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.574369</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3491,16 +3491,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.467789</v>
+        <v>-58.468182</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.68463</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3555,20 +3555,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3578,17 +3578,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3623,40 +3623,40 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3691,20 +3691,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.4212</v>
+        <v>-58.487371</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.623575</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3714,17 +3714,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3759,20 +3759,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.487371</v>
+        <v>-58.425845</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.640099</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3830,27 +3830,23 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>-58.425845</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-34.616562</v>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3860,7 +3856,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3875,7 +3871,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3898,13 +3894,17 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>-58.416477</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-34.61303</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.416477</v>
+        <v>-58.427424</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.61303</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4031,16 +4031,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.427424</v>
+        <v>-58.426665</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.601217</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4099,36 +4099,36 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.426665</v>
+        <v>-58.425478</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.598019</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4167,36 +4167,36 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.425478</v>
+        <v>-58.440448</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.601865</v>
+        <v>-34.611223</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4235,77 +4235,9 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.440448</v>
+        <v>-58.422775</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.611223</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>6168</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>6/17/2025</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>807537512</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>-58.422775</v>
-      </c>
-      <c r="N57" t="n">
         <v>-34.604135</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1800,27 +1800,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DON PEDRO DE MENDOZA AV. 1487</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803969349</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1859,36 +1859,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.355981</v>
+        <v>-58.439791</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.637104</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1927,36 +1927,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.439791</v>
+        <v>-58.425764</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.61969</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CALVO, CARLOS 3745</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804732288</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1995,36 +1995,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.425764</v>
+        <v>-58.41849</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.604359</v>
+        <v>-34.624501</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.41849</v>
+        <v>-58.439751</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.624501</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2131,16 +2131,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.439751</v>
+        <v>-58.43607</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.609908</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2150,17 +2150,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2199,36 +2199,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.43607</v>
+        <v>-58.375515</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.61926</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2267,36 +2267,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.375515</v>
+        <v>-58.451203</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.634393</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2335,36 +2335,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.451203</v>
+        <v>-58.415839</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.576561</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2399,40 +2399,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.415839</v>
+        <v>-58.369244</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.599291</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NECOCHEA 1315</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805579141</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2471,36 +2471,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.357009</v>
+        <v>-58.469148</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.635878</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>CALVO, CARLOS AV. 3882</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>806926382</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2535,40 +2535,40 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.369244</v>
+        <v>-58.419995</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.628787</v>
+        <v>-34.624709</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2607,16 +2607,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2675,16 +2675,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.419995</v>
+        <v>-58.429977</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.624709</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2694,17 +2694,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2743,36 +2743,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.395063</v>
+        <v>-58.421623</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.606257</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2811,36 +2811,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.429977</v>
+        <v>-58.47888</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.615514</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2879,16 +2879,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.421623</v>
+        <v>-58.443196</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.614541</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2898,17 +2898,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>ZUVIRIA 601</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806944779</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.47888</v>
+        <v>-58.434571</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.571108</v>
+        <v>-34.62946</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3011,40 +3011,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.443196</v>
+        <v>-58.51232</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.618534</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3083,36 +3083,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.434571</v>
+        <v>-58.483104</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.62946</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3151,36 +3151,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.51232</v>
+        <v>-58.483927</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.595637</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3219,36 +3219,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.483104</v>
+        <v>-58.501766</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.572353</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3283,40 +3283,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.483927</v>
+        <v>-58.467789</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.570689</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3355,26 +3355,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.501766</v>
+        <v>-58.468182</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.574369</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3419,20 +3419,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.467789</v>
+        <v>-58.477944</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.68463</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3442,17 +3442,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3491,36 +3491,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.468182</v>
+        <v>-58.4212</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.685231</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3555,30 +3555,30 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.477944</v>
+        <v>-58.487371</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.675149</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3627,16 +3627,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.4212</v>
+        <v>-58.425845</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.623575</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3646,17 +3646,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3691,30 +3691,26 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>-58.487371</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-34.640099</v>
-      </c>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3724,7 +3720,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3739,7 +3735,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3763,26 +3759,26 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.425845</v>
+        <v>-58.416477</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.616562</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3792,7 +3788,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3807,7 +3803,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3830,13 +3826,17 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>-58.427424</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.601217</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.416477</v>
+        <v>-58.426665</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.61303</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3963,36 +3963,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.427424</v>
+        <v>-58.425478</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.601217</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4031,26 +4031,26 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.426665</v>
+        <v>-58.440448</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.598019</v>
+        <v>-34.611223</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4099,145 +4099,9 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.425478</v>
+        <v>-58.422775</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.601865</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>6130</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>6/9/2025</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>VALLESE, FELIPE 490</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>807458227</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>-58.440448</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-34.611223</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>6168</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>6/17/2025</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>807537512</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>-58.422775</v>
-      </c>
-      <c r="N56" t="n">
         <v>-34.604135</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1936,27 +1936,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5587</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3745</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804732288</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.41849</v>
+        <v>-58.439751</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.624501</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.439751</v>
+        <v>-58.43607</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.609908</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2082,17 +2082,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2131,36 +2131,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.43607</v>
+        <v>-58.375515</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.61926</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2199,36 +2199,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.375515</v>
+        <v>-58.451203</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.634393</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2267,36 +2267,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.451203</v>
+        <v>-58.415839</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.576561</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2331,40 +2331,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.415839</v>
+        <v>-58.369244</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.599291</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2399,40 +2399,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.369244</v>
+        <v>-58.469148</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.628787</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2471,16 +2471,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS AV. 3882</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>806926382</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2539,16 +2539,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.419995</v>
+        <v>-58.429977</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.624709</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2558,17 +2558,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2593,12 +2593,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2607,36 +2607,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.395063</v>
+        <v>-58.421623</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.606257</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2675,36 +2675,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.429977</v>
+        <v>-58.47888</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.615514</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2743,16 +2743,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.421623</v>
+        <v>-58.443196</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.614541</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2807,40 +2807,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.47888</v>
+        <v>-58.51232</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.571108</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2879,36 +2879,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.443196</v>
+        <v>-58.483104</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.618534</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ZUVIRIA 601</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806944779</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2943,40 +2943,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.434571</v>
+        <v>-58.483927</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.62946</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3011,40 +3011,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.51232</v>
+        <v>-58.501766</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.595637</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3083,36 +3083,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.483104</v>
+        <v>-58.467789</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.572353</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3147,40 +3147,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.483927</v>
+        <v>-58.468182</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.570689</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3215,40 +3215,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.501766</v>
+        <v>-58.477944</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.574369</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3287,36 +3287,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.467789</v>
+        <v>-58.4212</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.68463</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3351,40 +3351,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.468182</v>
+        <v>-58.487371</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.685231</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3419,30 +3419,30 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.477944</v>
+        <v>-58.425845</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.675149</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3490,37 +3490,33 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>-58.4212</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-34.623575</v>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3535,7 +3531,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3545,7 +3541,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3555,30 +3551,30 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.487371</v>
+        <v>-58.416477</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.640099</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3588,7 +3584,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3603,7 +3599,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3627,26 +3623,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.425845</v>
+        <v>-58.427424</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.616562</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3656,7 +3652,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3671,7 +3667,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3694,13 +3690,17 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>-58.426665</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-34.598019</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3759,36 +3759,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.416477</v>
+        <v>-58.425478</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.61303</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3827,26 +3827,26 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.427424</v>
+        <v>-58.440448</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.601217</v>
+        <v>-34.611223</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3895,36 +3895,36 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.426665</v>
+        <v>-58.422775</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.598019</v>
+        <v>-34.604135</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3959,42 +3959,38 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.425478</v>
+        <v>-58.497698</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.601865</v>
+        <v>-34.612038</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>807458227</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
           <t>Optical Power</t>
@@ -4007,7 +4003,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4017,7 +4013,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4027,42 +4023,38 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.440448</v>
+        <v>-58.44848</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.611223</v>
+        <v>-34.581338</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>807537512</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
           <t>Optical Power</t>
@@ -4075,7 +4067,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4085,7 +4077,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4095,14 +4087,78 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.422775</v>
+        <v>-58.448496</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.604135</v>
+        <v>-34.58182</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6236</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>San Jose 1157</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.385887</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.621845</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1188,27 +1188,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1247,36 +1247,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.440625</v>
+        <v>-58.447022</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.625499</v>
+        <v>-34.575873</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1315,36 +1315,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.435755</v>
+        <v>-58.440625</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.621286</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1383,26 +1383,26 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.400156</v>
+        <v>-58.435755</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.631369</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1451,16 +1451,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.402062</v>
+        <v>-58.400156</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.635143</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1470,17 +1470,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1519,36 +1519,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.443039</v>
+        <v>-58.402062</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.612262</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1583,40 +1583,40 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.506348</v>
+        <v>-58.443039</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.607461</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1651,40 +1651,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.496255</v>
+        <v>-58.506348</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.650599</v>
+        <v>-34.607461</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1723,26 +1723,26 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.371855</v>
+        <v>-58.496255</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.646958</v>
+        <v>-34.650599</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1791,36 +1791,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.403583</v>
+        <v>-58.371855</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.591604</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1859,36 +1859,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.439791</v>
+        <v>-58.403583</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.61969</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1927,36 +1927,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.425764</v>
+        <v>-58.439791</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.604359</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1995,36 +1995,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.439751</v>
+        <v>-58.445131</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.609908</v>
+        <v>-34.572117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.43607</v>
+        <v>-58.425764</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.61926</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2082,17 +2082,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2131,36 +2131,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.375515</v>
+        <v>-58.439751</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.634393</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2199,36 +2199,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.451203</v>
+        <v>-58.43607</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.576561</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2267,36 +2267,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.415839</v>
+        <v>-58.375515</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.599291</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2331,40 +2331,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.369244</v>
+        <v>-58.451203</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.628787</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2403,36 +2403,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.469148</v>
+        <v>-58.415839</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.687883</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>IRALA 29</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707145</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2462,45 +2462,45 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.395063</v>
+        <v>-58.369244</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.606257</v>
+        <v>-34.628787</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2539,16 +2539,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.429977</v>
+        <v>-58.469148</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.615514</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2558,17 +2558,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2593,12 +2593,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2607,36 +2607,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.421623</v>
+        <v>-58.395063</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.614541</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2675,36 +2675,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.47888</v>
+        <v>-58.429977</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.571108</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2743,16 +2743,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.443196</v>
+        <v>-58.421623</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.618534</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2807,40 +2807,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.51232</v>
+        <v>-58.47888</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.595637</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2879,36 +2879,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.483104</v>
+        <v>-58.443196</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.572353</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2947,36 +2947,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.483927</v>
+        <v>-58.51232</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.570689</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3015,36 +3015,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.501766</v>
+        <v>-58.483104</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.574369</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3079,40 +3079,40 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.467789</v>
+        <v>-58.483927</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.68463</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3151,26 +3151,26 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.468182</v>
+        <v>-58.501766</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.685231</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3215,20 +3215,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.477944</v>
+        <v>-58.467789</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.675149</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3238,17 +3238,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3287,36 +3287,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.4212</v>
+        <v>-58.468182</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.623575</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3351,30 +3351,30 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.487371</v>
+        <v>-58.477944</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.640099</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.425845</v>
+        <v>-58.4212</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.616562</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3442,17 +3442,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3487,26 +3487,30 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>-58.487371</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-34.640099</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3516,7 +3520,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3531,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3555,26 +3559,26 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.416477</v>
+        <v>-58.425845</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.61303</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3584,7 +3588,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3599,7 +3603,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3622,17 +3626,13 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>-58.427424</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-34.601217</v>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3691,16 +3691,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.426665</v>
+        <v>-58.416477</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.598019</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3759,36 +3759,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.425478</v>
+        <v>-58.427424</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.601865</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3827,26 +3827,26 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.440448</v>
+        <v>-58.426665</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.611223</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3895,36 +3895,36 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.422775</v>
+        <v>-58.425478</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.604135</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3959,38 +3959,42 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.497698</v>
+        <v>-58.440448</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.612038</v>
+        <v>-34.611223</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>807537512</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>Optical Power</t>
@@ -4003,7 +4007,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4013,7 +4017,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4023,38 +4027,42 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.44848</v>
+        <v>-58.422775</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.581338</v>
+        <v>-34.604135</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>807605710</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>Optical Power</t>
@@ -4067,7 +4075,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4077,7 +4085,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4091,73 +4099,213 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.448496</v>
+        <v>-58.497698</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.58182</v>
+        <v>-34.612038</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>6229</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ALVAREZ THOMAS AV. 309</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>807762987</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reparar rienda </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.44848</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.581338</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6228</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NEWBERY, JORGE AV. 3416</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>807762990</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.448496</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.58182</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>6236</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>6/24/2025</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>San Jose 1157</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>807763095</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="M57" t="n">
         <v>-58.385887</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N57" t="n">
         <v>-34.621845</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,27 +984,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1029,40 +1029,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.425997</v>
+        <v>-58.426169</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.620454</v>
+        <v>-34.579697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1111,36 +1111,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.428283</v>
+        <v>-58.425997</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.601207</v>
+        <v>-34.620454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1179,36 +1179,36 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.443626</v>
+        <v>-58.428283</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.621032</v>
+        <v>-34.601207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1247,36 +1247,36 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.447022</v>
+        <v>-58.443626</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.575873</v>
+        <v>-34.621032</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1315,36 +1315,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.440625</v>
+        <v>-58.450789</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.625499</v>
+        <v>-34.577949</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1383,36 +1383,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.435755</v>
+        <v>-58.447022</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.621286</v>
+        <v>-34.575873</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1451,36 +1451,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.400156</v>
+        <v>-58.440625</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.631369</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1519,36 +1519,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.402062</v>
+        <v>-58.435755</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.635143</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1587,36 +1587,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.443039</v>
+        <v>-58.400156</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.612262</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1646,45 +1646,45 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.506348</v>
+        <v>-58.402062</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.607461</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1723,36 +1723,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.496255</v>
+        <v>-58.443039</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.650599</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1767,12 +1767,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1787,40 +1787,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.371855</v>
+        <v>-58.506348</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.646958</v>
+        <v>-34.607461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1859,36 +1859,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.403583</v>
+        <v>-58.496255</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.591604</v>
+        <v>-34.650599</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1927,36 +1927,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.439791</v>
+        <v>-58.371855</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.61969</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1995,36 +1995,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.445131</v>
+        <v>-58.403583</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.572117</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2063,36 +2063,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.425764</v>
+        <v>-58.439791</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.604359</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2131,36 +2131,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.439751</v>
+        <v>-58.445131</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.609908</v>
+        <v>-34.572117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.43607</v>
+        <v>-58.425764</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.61926</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2218,17 +2218,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2267,36 +2267,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.375515</v>
+        <v>-58.439751</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.634393</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2335,36 +2335,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.451203</v>
+        <v>-58.43607</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.576561</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2403,36 +2403,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.415839</v>
+        <v>-58.375515</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.599291</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5738</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IRALA 29</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805707145</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2467,40 +2467,40 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.369244</v>
+        <v>-58.451203</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.628787</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2539,36 +2539,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.469148</v>
+        <v>-58.415839</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.687883</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2607,36 +2607,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.395063</v>
+        <v>-58.440177</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.606257</v>
+        <v>-34.56291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2675,16 +2675,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.429977</v>
+        <v>-58.469148</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.615514</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2694,17 +2694,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2743,36 +2743,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.421623</v>
+        <v>-58.395063</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.614541</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2811,36 +2811,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.47888</v>
+        <v>-58.429977</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.571108</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2879,16 +2879,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.443196</v>
+        <v>-58.421623</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.618534</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2898,17 +2898,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2943,40 +2943,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.51232</v>
+        <v>-58.47888</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.595637</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3015,36 +3015,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.483104</v>
+        <v>-58.443196</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.572353</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3083,36 +3083,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.483927</v>
+        <v>-58.51232</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.570689</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3151,36 +3151,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.501766</v>
+        <v>-58.483104</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.574369</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3215,40 +3215,40 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.467789</v>
+        <v>-58.483927</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.68463</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3287,26 +3287,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.468182</v>
+        <v>-58.501766</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.685231</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3351,20 +3351,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.477944</v>
+        <v>-58.467789</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.675149</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3374,17 +3374,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3423,36 +3423,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.4212</v>
+        <v>-58.468182</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.623575</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3487,30 +3487,30 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.487371</v>
+        <v>-58.477944</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.640099</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3559,16 +3559,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.425845</v>
+        <v>-58.4212</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.616562</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3578,17 +3578,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3623,26 +3623,30 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>-58.487371</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-34.640099</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3652,7 +3656,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3667,7 +3671,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3691,26 +3695,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.416477</v>
+        <v>-58.425845</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.61303</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3720,7 +3724,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3735,7 +3739,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3758,17 +3762,13 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>-58.427424</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-34.601217</v>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3827,16 +3827,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.426665</v>
+        <v>-58.416477</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.598019</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3895,36 +3895,36 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.425478</v>
+        <v>-58.427424</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.601865</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3963,26 +3963,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.440448</v>
+        <v>-58.426665</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.611223</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4031,36 +4031,36 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.422775</v>
+        <v>-58.425478</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.604135</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4095,40 +4095,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.497698</v>
+        <v>-58.440448</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.612038</v>
+        <v>-34.611223</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4163,40 +4163,40 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.44848</v>
+        <v>-58.422775</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.581338</v>
+        <v>-34.604135</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4235,78 +4235,278 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.448496</v>
+        <v>-58.497698</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.58182</v>
+        <v>-34.612038</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>6229</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ALVAREZ THOMAS AV. 309</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>807762987</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reparar rienda </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.44848</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.581338</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6228</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NEWBERY, JORGE AV. 3416</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>807762990</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.448496</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.58182</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>6236</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>6/24/2025</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>San Jose 1157</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>807763095</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="M59" t="n">
         <v>-58.385887</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N59" t="n">
         <v>-34.621845</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6249</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6/25/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GODOY CRUZ 2696</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Inclinada posible cambio</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>-58.425296</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-34.578706</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4466,7 +4466,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>807789682</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>Optical Power</t>
@@ -4507,6 +4511,74 @@
       </c>
       <c r="N60" t="n">
         <v>-34.578706</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6271</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ARGERICH 740</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>807789686</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-58.474467</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-34.624161</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4380,27 +4380,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6236</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>San Jose 1157</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807763095</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4435,40 +4435,40 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.385887</v>
+        <v>-58.425296</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.621845</v>
+        <v>-34.578706</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4507,77 +4507,9 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.578706</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>6271</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>ARGERICH 740</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>807789686</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>-58.474467</v>
-      </c>
-      <c r="N61" t="n">
         <v>-34.624161</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4513,6 +4513,74 @@
         <v>-34.624161</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>-493</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6/27/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>JUFRE 424</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>807817955</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-58.432644</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-34.595434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2888,7 +2888,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2898,17 +2898,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.47888</v>
+        <v>-58.429972</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.571108</v>
+        <v>-34.632042</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3015,16 +3015,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.443196</v>
+        <v>-58.47888</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.618534</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3079,40 +3079,40 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.51232</v>
+        <v>-58.443196</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.595637</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3151,36 +3151,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.483104</v>
+        <v>-58.422268</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.572353</v>
+        <v>-34.627754</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3205,50 +3205,50 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.483927</v>
+        <v>-58.423148</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.570689</v>
+        <v>-34.576964</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3283,40 +3283,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.501766</v>
+        <v>-58.51232</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.574369</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3355,36 +3355,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.467789</v>
+        <v>-58.483104</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.68463</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3419,40 +3419,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.468182</v>
+        <v>-58.483927</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.685231</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3487,40 +3487,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.477944</v>
+        <v>-58.501766</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.675149</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3559,36 +3559,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.4212</v>
+        <v>-58.467789</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.623575</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3613,50 +3613,50 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.487371</v>
+        <v>-58.423551</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.640099</v>
+        <v>-34.581258</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3695,36 +3695,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.425845</v>
+        <v>-58.468182</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.616562</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3759,26 +3759,30 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.477944</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.675149</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3788,7 +3792,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3803,7 +3807,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3827,36 +3831,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.416477</v>
+        <v>-58.4212</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.61303</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3871,7 +3875,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3881,7 +3885,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3891,30 +3895,30 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.427424</v>
+        <v>-58.487371</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.601217</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3924,7 +3928,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3939,7 +3943,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3963,26 +3967,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.426665</v>
+        <v>-58.425845</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.598019</v>
+        <v>-34.616562</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3992,7 +3996,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4007,7 +4011,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4030,37 +4034,33 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>-58.425478</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-34.601865</v>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4099,26 +4099,26 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.440448</v>
+        <v>-58.416477</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.611223</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4167,36 +4167,36 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.422775</v>
+        <v>-58.427424</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.604135</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4231,40 +4231,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.497698</v>
+        <v>-58.426665</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.612038</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4299,40 +4299,40 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.44848</v>
+        <v>-58.425478</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.581338</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4367,40 +4367,40 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.448496</v>
+        <v>-58.440448</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.58182</v>
+        <v>-34.611223</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4439,36 +4439,36 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.425296</v>
+        <v>-58.422775</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.578706</v>
+        <v>-34.604135</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4503,82 +4503,422 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.474467</v>
+        <v>-58.497698</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.624161</v>
+        <v>-34.612038</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>6229</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ALVAREZ THOMAS AV. 309</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>807762987</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reparar rienda </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-58.44848</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-34.581338</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>6228</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NEWBERY, JORGE AV. 3416</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>807762990</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>-58.448496</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-34.58182</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>6249</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6/25/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GODOY CRUZ 2696</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>807789682</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Inclinada posible cambio</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>-58.425296</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-34.578706</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6271</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ARGERICH 740</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>807789686</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.474467</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.624161</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>-493</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>6/27/2025</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>JUFRE 424</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>807817955</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>Desmonte</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>-58.432644</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N65" t="n">
         <v>-34.595434</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>6284</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>6/30/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CHILE 2561</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>807851584</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Colocar columna para pedir traspaso</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>-58.401827</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-34.617667</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,27 +1324,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1383,36 +1383,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.447022</v>
+        <v>-58.421741</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.575873</v>
+        <v>-34.584789</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1451,36 +1451,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.440625</v>
+        <v>-58.447022</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.625499</v>
+        <v>-34.575873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1519,36 +1519,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.435755</v>
+        <v>-58.440625</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.621286</v>
+        <v>-34.625499</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1587,26 +1587,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.400156</v>
+        <v>-58.435755</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.631369</v>
+        <v>-34.621286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1655,16 +1655,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.402062</v>
+        <v>-58.400156</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.635143</v>
+        <v>-34.631369</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1674,17 +1674,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1723,36 +1723,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.443039</v>
+        <v>-58.402062</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.612262</v>
+        <v>-34.635143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1787,40 +1787,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.506348</v>
+        <v>-58.443039</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.607461</v>
+        <v>-34.612262</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1855,40 +1855,40 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.496255</v>
+        <v>-58.506348</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.650599</v>
+        <v>-34.607461</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1927,26 +1927,26 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.371855</v>
+        <v>-58.496255</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.646958</v>
+        <v>-34.650599</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1995,36 +1995,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.403583</v>
+        <v>-58.371855</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.591604</v>
+        <v>-34.646958</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2039,12 +2039,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2063,36 +2063,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.439791</v>
+        <v>-58.403583</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.61969</v>
+        <v>-34.591604</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2131,36 +2131,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.445131</v>
+        <v>-58.439791</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.572117</v>
+        <v>-34.61969</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2199,36 +2199,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.425764</v>
+        <v>-58.445131</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.604359</v>
+        <v>-34.572117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2267,16 +2267,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.439751</v>
+        <v>-58.425764</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.609908</v>
+        <v>-34.604359</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2335,16 +2335,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.43607</v>
+        <v>-58.439751</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.61926</v>
+        <v>-34.609908</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2354,17 +2354,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2403,36 +2403,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2471,36 +2471,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.451203</v>
+        <v>-58.375515</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.576561</v>
+        <v>-34.634393</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2539,36 +2539,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2607,36 +2607,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.440177</v>
+        <v>-58.415839</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.56291</v>
+        <v>-34.599291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2675,36 +2675,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.469148</v>
+        <v>-58.440177</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.687883</v>
+        <v>-34.56291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2743,16 +2743,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.395063</v>
+        <v>-58.469148</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.606257</v>
+        <v>-34.687883</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2811,16 +2811,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.429977</v>
+        <v>-58.395063</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.615514</v>
+        <v>-34.606257</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2830,17 +2830,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2879,36 +2879,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.429972</v>
+        <v>-58.421623</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.632042</v>
+        <v>-34.614541</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3015,16 +3015,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.47888</v>
+        <v>-58.429972</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.571108</v>
+        <v>-34.632042</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3083,16 +3083,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.443196</v>
+        <v>-58.47888</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.618534</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3151,16 +3151,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.422268</v>
+        <v>-58.443196</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.627754</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3219,16 +3219,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.423148</v>
+        <v>-58.422268</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.576964</v>
+        <v>-34.627754</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3238,17 +3238,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3278,45 +3278,45 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.51232</v>
+        <v>-58.423148</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.595637</v>
+        <v>-34.576964</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3351,40 +3351,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3419,30 +3419,30 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3487,20 +3487,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.501766</v>
+        <v>-58.483927</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.574369</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3510,17 +3510,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3559,16 +3559,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3578,17 +3578,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3627,36 +3627,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.423551</v>
+        <v>-58.467789</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.581258</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3695,16 +3695,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.468182</v>
+        <v>-58.423551</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.685231</v>
+        <v>-34.581258</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3759,20 +3759,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3782,17 +3782,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3827,40 +3827,40 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.4212</v>
+        <v>-58.477944</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.623575</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3895,20 +3895,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.487371</v>
+        <v>-58.4212</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.640099</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3918,17 +3918,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3963,20 +3963,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.425845</v>
+        <v>-58.487371</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.616562</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4034,23 +4034,27 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>-58.425845</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-34.616562</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4060,7 +4064,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4075,7 +4079,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4098,17 +4102,13 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>-58.416477</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-34.61303</v>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4167,16 +4167,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.427424</v>
+        <v>-58.416477</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.601217</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4235,16 +4235,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.426665</v>
+        <v>-58.427424</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.598019</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4303,36 +4303,36 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.425478</v>
+        <v>-58.426665</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.601865</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4371,36 +4371,36 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.440448</v>
+        <v>-58.425478</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.611223</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4439,36 +4439,36 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.422775</v>
+        <v>-58.440448</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.604135</v>
+        <v>-34.611223</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4503,40 +4503,40 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.497698</v>
+        <v>-58.422775</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.612038</v>
+        <v>-34.604135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4575,16 +4575,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.44848</v>
+        <v>-58.497698</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.581338</v>
+        <v>-34.612038</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4643,36 +4643,36 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.448496</v>
+        <v>-58.44848</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.58182</v>
+        <v>-34.581338</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4707,40 +4707,40 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.425296</v>
+        <v>-58.448496</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.578706</v>
+        <v>-34.58182</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4779,36 +4779,36 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.474467</v>
+        <v>-58.425296</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.624161</v>
+        <v>-34.578706</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4847,77 +4847,145 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.432644</v>
+        <v>-58.474467</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.595434</v>
+        <v>-34.624161</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>-493</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>6/27/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>JUFRE 424</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>807817955</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>-58.432644</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-34.595434</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>6284</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>6/30/2025</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>CHILE 2561</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>807851584</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>-58.401827</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N67" t="n">
         <v>-34.617667</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,6 +4989,142 @@
         <v>-34.617667</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>6298</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>7/1/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>RIVERA INDARTE AV. 1406</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>807877127</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>-58.450359</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-34.643582</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>6303</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>7/1/2025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>BILBAO, FRANCISCO 2362</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>807877145</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Columna con base corroida oxidada</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>-58.459566</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-34.634615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5125,6 +5125,74 @@
         <v>-34.634615</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>6308</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>7/1/2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Guayaquil 637</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>807896343</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>-58.437378</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-34.62116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2956,7 +2956,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3015,16 +3015,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.429972</v>
+        <v>-58.416562</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.632042</v>
+        <v>-34.590589</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3083,16 +3083,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.47888</v>
+        <v>-58.429972</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.571108</v>
+        <v>-34.632042</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3151,16 +3151,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.443196</v>
+        <v>-58.47888</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.618534</v>
+        <v>-34.571108</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3219,16 +3219,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.422268</v>
+        <v>-58.443196</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.627754</v>
+        <v>-34.618534</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3238,17 +3238,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3287,16 +3287,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.423148</v>
+        <v>-58.422268</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.576964</v>
+        <v>-34.627754</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3306,17 +3306,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3346,45 +3346,45 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.51232</v>
+        <v>-58.423148</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.595637</v>
+        <v>-34.576964</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3419,40 +3419,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3487,30 +3487,30 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3555,20 +3555,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.501766</v>
+        <v>-58.483927</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.574369</v>
+        <v>-34.570689</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3578,17 +3578,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3627,16 +3627,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3646,17 +3646,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3695,36 +3695,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.423551</v>
+        <v>-58.467789</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.581258</v>
+        <v>-34.68463</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3763,16 +3763,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.468182</v>
+        <v>-58.423551</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.685231</v>
+        <v>-34.581258</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3827,20 +3827,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3850,17 +3850,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3895,40 +3895,40 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.4212</v>
+        <v>-58.477944</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.623575</v>
+        <v>-34.675149</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3963,20 +3963,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.487371</v>
+        <v>-58.4212</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.640099</v>
+        <v>-34.623575</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3986,17 +3986,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4031,20 +4031,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.425845</v>
+        <v>-58.487371</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.616562</v>
+        <v>-34.640099</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4102,23 +4102,27 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>-58.425845</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-34.616562</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4128,7 +4132,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4143,7 +4147,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4166,17 +4170,13 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>-58.416477</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-34.61303</v>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4235,16 +4235,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.427424</v>
+        <v>-58.416477</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.601217</v>
+        <v>-34.61303</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4303,16 +4303,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.426665</v>
+        <v>-58.427424</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.598019</v>
+        <v>-34.601217</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4371,36 +4371,36 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.425478</v>
+        <v>-58.426665</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.601865</v>
+        <v>-34.598019</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4439,36 +4439,36 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.440448</v>
+        <v>-58.425478</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.611223</v>
+        <v>-34.601865</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4507,36 +4507,36 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.422775</v>
+        <v>-58.440448</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.604135</v>
+        <v>-34.611223</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.497698</v>
+        <v>-58.422775</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.612038</v>
+        <v>-34.604135</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4643,16 +4643,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.44848</v>
+        <v>-58.497698</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.581338</v>
+        <v>-34.612038</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4711,36 +4711,36 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.448496</v>
+        <v>-58.44848</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.58182</v>
+        <v>-34.581338</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4775,40 +4775,40 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.425296</v>
+        <v>-58.448496</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.578706</v>
+        <v>-34.58182</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4847,36 +4847,36 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.474467</v>
+        <v>-58.400169</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.624161</v>
+        <v>-34.617784</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4915,36 +4915,36 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.432644</v>
+        <v>-58.425296</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.595434</v>
+        <v>-34.578706</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4983,36 +4983,36 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.401827</v>
+        <v>-58.474467</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.617667</v>
+        <v>-34.624161</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5051,36 +5051,36 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.450359</v>
+        <v>-58.432644</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.643582</v>
+        <v>-34.595434</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5119,77 +5119,213 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.459566</v>
+        <v>-58.401827</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.634615</v>
+        <v>-34.617667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>6298</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>7/1/2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>RIVERA INDARTE AV. 1406</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>807877127</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>-58.450359</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-34.643582</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>6303</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>7/1/2025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>BILBAO, FRANCISCO 2362</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>807877145</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Columna con base corroida oxidada</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>-58.459566</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-34.634615</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>6308</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>7/1/2025</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Guayaquil 637</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>807896343</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>-58.437378</v>
       </c>
-      <c r="N70" t="n">
+      <c r="N72" t="n">
         <v>-34.62116</v>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,16 @@
           <t>Coordenada_Y</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Zona</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -572,6 +582,16 @@
       <c r="N2" t="n">
         <v>-34.588287</v>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +660,16 @@
       <c r="N3" t="n">
         <v>-34.584156</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -708,6 +738,16 @@
       <c r="N4" t="n">
         <v>-34.595287</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -776,6 +816,16 @@
       <c r="N5" t="n">
         <v>-34.599935</v>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -844,6 +894,16 @@
       <c r="N6" t="n">
         <v>-34.590308</v>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -912,6 +972,16 @@
       <c r="N7" t="n">
         <v>-34.60178</v>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -980,6 +1050,16 @@
       <c r="N8" t="n">
         <v>-34.6349</v>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1048,6 +1128,16 @@
       <c r="N9" t="n">
         <v>-34.579697</v>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1116,6 +1206,16 @@
       <c r="N10" t="n">
         <v>-34.620454</v>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1184,6 +1284,16 @@
       <c r="N11" t="n">
         <v>-34.601207</v>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1252,6 +1362,16 @@
       <c r="N12" t="n">
         <v>-34.621032</v>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1320,6 +1440,16 @@
       <c r="N13" t="n">
         <v>-34.577949</v>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1388,6 +1518,16 @@
       <c r="N14" t="n">
         <v>-34.584789</v>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1456,6 +1596,16 @@
       <c r="N15" t="n">
         <v>-34.575873</v>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1524,6 +1674,16 @@
       <c r="N16" t="n">
         <v>-34.625499</v>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1592,6 +1752,16 @@
       <c r="N17" t="n">
         <v>-34.621286</v>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1660,6 +1830,16 @@
       <c r="N18" t="n">
         <v>-34.631369</v>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1728,6 +1908,16 @@
       <c r="N19" t="n">
         <v>-34.635143</v>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1796,6 +1986,16 @@
       <c r="N20" t="n">
         <v>-34.612262</v>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1864,6 +2064,16 @@
       <c r="N21" t="n">
         <v>-34.607461</v>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1932,6 +2142,16 @@
       <c r="N22" t="n">
         <v>-34.650599</v>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2000,6 +2220,16 @@
       <c r="N23" t="n">
         <v>-34.646958</v>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2068,6 +2298,16 @@
       <c r="N24" t="n">
         <v>-34.591604</v>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2136,6 +2376,16 @@
       <c r="N25" t="n">
         <v>-34.61969</v>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2204,6 +2454,16 @@
       <c r="N26" t="n">
         <v>-34.572117</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2272,6 +2532,16 @@
       <c r="N27" t="n">
         <v>-34.604359</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2340,6 +2610,16 @@
       <c r="N28" t="n">
         <v>-34.609908</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2408,6 +2688,16 @@
       <c r="N29" t="n">
         <v>-34.61926</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2476,6 +2766,16 @@
       <c r="N30" t="n">
         <v>-34.634393</v>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2544,6 +2844,16 @@
       <c r="N31" t="n">
         <v>-34.576561</v>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2612,6 +2922,16 @@
       <c r="N32" t="n">
         <v>-34.599291</v>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2680,6 +3000,16 @@
       <c r="N33" t="n">
         <v>-34.56291</v>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2748,6 +3078,16 @@
       <c r="N34" t="n">
         <v>-34.687883</v>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2816,6 +3156,16 @@
       <c r="N35" t="n">
         <v>-34.606257</v>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2884,6 +3234,16 @@
       <c r="N36" t="n">
         <v>-34.615514</v>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2952,6 +3312,16 @@
       <c r="N37" t="n">
         <v>-34.614541</v>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3020,6 +3390,16 @@
       <c r="N38" t="n">
         <v>-34.590589</v>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3088,6 +3468,16 @@
       <c r="N39" t="n">
         <v>-34.632042</v>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3156,6 +3546,16 @@
       <c r="N40" t="n">
         <v>-34.571108</v>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3224,6 +3624,16 @@
       <c r="N41" t="n">
         <v>-34.618534</v>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3292,6 +3702,16 @@
       <c r="N42" t="n">
         <v>-34.627754</v>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3360,6 +3780,16 @@
       <c r="N43" t="n">
         <v>-34.576964</v>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3428,6 +3858,16 @@
       <c r="N44" t="n">
         <v>-34.595637</v>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3496,6 +3936,16 @@
       <c r="N45" t="n">
         <v>-34.572353</v>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3564,6 +4014,16 @@
       <c r="N46" t="n">
         <v>-34.570689</v>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3632,6 +4092,16 @@
       <c r="N47" t="n">
         <v>-34.574369</v>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3700,6 +4170,16 @@
       <c r="N48" t="n">
         <v>-34.68463</v>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3768,6 +4248,16 @@
       <c r="N49" t="n">
         <v>-34.581258</v>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3836,6 +4326,16 @@
       <c r="N50" t="n">
         <v>-34.685231</v>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3904,6 +4404,16 @@
       <c r="N51" t="n">
         <v>-34.675149</v>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3972,6 +4482,16 @@
       <c r="N52" t="n">
         <v>-34.623575</v>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4040,6 +4560,16 @@
       <c r="N53" t="n">
         <v>-34.640099</v>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4108,6 +4638,16 @@
       <c r="N54" t="n">
         <v>-34.616562</v>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4172,6 +4712,8 @@
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4240,6 +4782,16 @@
       <c r="N56" t="n">
         <v>-34.61303</v>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4308,6 +4860,16 @@
       <c r="N57" t="n">
         <v>-34.601217</v>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4376,6 +4938,16 @@
       <c r="N58" t="n">
         <v>-34.598019</v>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4444,6 +5016,16 @@
       <c r="N59" t="n">
         <v>-34.601865</v>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4512,6 +5094,16 @@
       <c r="N60" t="n">
         <v>-34.611223</v>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4580,6 +5172,16 @@
       <c r="N61" t="n">
         <v>-34.604135</v>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4648,6 +5250,16 @@
       <c r="N62" t="n">
         <v>-34.612038</v>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4716,6 +5328,16 @@
       <c r="N63" t="n">
         <v>-34.581338</v>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4784,6 +5406,16 @@
       <c r="N64" t="n">
         <v>-34.58182</v>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4852,6 +5484,16 @@
       <c r="N65" t="n">
         <v>-34.617784</v>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4920,6 +5562,16 @@
       <c r="N66" t="n">
         <v>-34.578706</v>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4988,6 +5640,16 @@
       <c r="N67" t="n">
         <v>-34.624161</v>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5056,6 +5718,16 @@
       <c r="N68" t="n">
         <v>-34.595434</v>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5124,6 +5796,16 @@
       <c r="N69" t="n">
         <v>-34.617667</v>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5192,6 +5874,16 @@
       <c r="N70" t="n">
         <v>-34.643582</v>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5260,6 +5952,16 @@
       <c r="N71" t="n">
         <v>-34.634615</v>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5327,6 +6029,16 @@
       </c>
       <c r="N72" t="n">
         <v>-34.62116</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2390,27 +2390,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2435,60 +2435,60 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.445131</v>
+        <v>-58.485232</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.572117</v>
+        <v>-34.611573</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2527,14 +2527,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.425764</v>
+        <v>-58.445131</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.604359</v>
+        <v>-34.572117</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2546,27 +2546,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2605,10 +2605,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.439751</v>
+        <v>-58.425764</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.609908</v>
+        <v>-34.604359</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2683,14 +2683,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.43607</v>
+        <v>-58.439751</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.61926</v>
+        <v>-34.609908</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2702,7 +2702,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2761,14 +2761,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2780,27 +2780,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2839,46 +2839,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.451203</v>
+        <v>-58.375515</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.576561</v>
+        <v>-34.634393</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2917,46 +2917,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2995,46 +2995,46 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.440177</v>
+        <v>-58.415839</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.56291</v>
+        <v>-34.599291</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3073,46 +3073,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.469148</v>
+        <v>-58.440177</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.687883</v>
+        <v>-34.56291</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3151,14 +3151,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.395063</v>
+        <v>-58.469148</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.606257</v>
+        <v>-34.687883</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3170,7 +3170,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3180,17 +3180,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3215,12 +3215,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3229,14 +3229,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.429977</v>
+        <v>-58.395063</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.615514</v>
+        <v>-34.606257</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3248,7 +3248,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3258,17 +3258,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3307,14 +3307,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3326,27 +3326,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3385,14 +3385,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.416562</v>
+        <v>-58.421623</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.590589</v>
+        <v>-34.614541</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3463,14 +3463,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.429972</v>
+        <v>-58.416562</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.632042</v>
+        <v>-34.590589</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3482,7 +3482,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3492,17 +3492,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3541,26 +3541,26 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.47888</v>
+        <v>-58.429972</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.571108</v>
+        <v>-34.632042</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3570,17 +3570,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3619,26 +3619,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.443196</v>
+        <v>-58.47888</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.618534</v>
+        <v>-34.571108</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3648,17 +3648,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3697,14 +3697,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.422268</v>
+        <v>-58.443196</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.627754</v>
+        <v>-34.618534</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3716,7 +3716,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3726,17 +3726,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3775,14 +3775,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.423148</v>
+        <v>-58.422268</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.576964</v>
+        <v>-34.627754</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3794,7 +3794,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3804,17 +3804,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3844,55 +3844,55 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.51232</v>
+        <v>-58.423148</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.595637</v>
+        <v>-34.576964</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3927,18 +3927,18 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3950,27 +3950,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4005,14 +4005,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4028,17 +4028,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4083,18 +4083,18 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.501766</v>
+        <v>-58.483927</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.574369</v>
+        <v>-34.570689</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4106,7 +4106,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4165,26 +4165,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4194,17 +4194,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4243,14 +4243,14 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.423551</v>
+        <v>-58.467789</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.581258</v>
+        <v>-34.68463</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4262,27 +4262,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4321,14 +4321,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.468182</v>
+        <v>-58.423551</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.685231</v>
+        <v>-34.581258</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4395,14 +4395,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4428,17 +4428,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4473,14 +4473,14 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.4212</v>
+        <v>-58.477944</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.623575</v>
+        <v>-34.675149</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4496,27 +4496,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4551,30 +4551,30 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.487371</v>
+        <v>-58.4212</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.640099</v>
+        <v>-34.623575</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4584,17 +4584,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.425845</v>
+        <v>-58.487371</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.616562</v>
+        <v>-34.640099</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4710,25 +4710,37 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>-58.425845</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.616562</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4738,7 +4750,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4753,7 +4765,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4776,27 +4788,15 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>-58.416477</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-34.61303</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4855,10 +4855,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.427424</v>
+        <v>-58.416477</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.601217</v>
+        <v>-34.61303</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.426665</v>
+        <v>-58.427424</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.598019</v>
+        <v>-34.601217</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5011,10 +5011,10 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.425478</v>
+        <v>-58.426665</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.601865</v>
+        <v>-34.598019</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5030,27 +5030,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5089,10 +5089,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.440448</v>
+        <v>-58.425478</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.611223</v>
+        <v>-34.601865</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5108,27 +5108,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5167,10 +5167,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.422775</v>
+        <v>-58.440448</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.604135</v>
+        <v>-34.611223</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5186,27 +5186,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5241,50 +5241,50 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.497698</v>
+        <v>-58.422775</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.612038</v>
+        <v>-34.604135</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5323,26 +5323,26 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.44848</v>
+        <v>-58.497698</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.581338</v>
+        <v>-34.612038</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5401,26 +5401,26 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.448496</v>
+        <v>-58.44848</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.58182</v>
+        <v>-34.581338</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5430,17 +5430,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5465,60 +5465,60 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.400169</v>
+        <v>-58.448496</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.617784</v>
+        <v>-34.58182</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5557,14 +5557,14 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.425296</v>
+        <v>-58.400169</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.578706</v>
+        <v>-34.617784</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5576,27 +5576,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5635,46 +5635,46 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.474467</v>
+        <v>-58.425296</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.624161</v>
+        <v>-34.578706</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5713,46 +5713,46 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.432644</v>
+        <v>-58.474467</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.595434</v>
+        <v>-34.624161</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5777,12 +5777,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5791,14 +5791,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.401827</v>
+        <v>-58.432644</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.617667</v>
+        <v>-34.595434</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5810,27 +5810,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5869,14 +5869,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.450359</v>
+        <v>-58.401827</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.643582</v>
+        <v>-34.617667</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5888,7 +5888,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.459566</v>
+        <v>-58.450359</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.634615</v>
+        <v>-34.643582</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5966,76 +5966,310 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>6303</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>7/1/2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>BILBAO, FRANCISCO 2362</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>807877145</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Columna con base corroida oxidada</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>-58.459566</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-34.634615</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>6308</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>7/1/2025</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Guayaquil 637</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>807896343</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="M73" t="n">
         <v>-58.437378</v>
       </c>
-      <c r="N72" t="n">
+      <c r="N73" t="n">
         <v>-34.62116</v>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>Boedo</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>6330</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>REPUBLICA DE LA INDIA 3106</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>807965776</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Picada e inclinada</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>-58.413941</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-34.57698</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>-501</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Cabello 3107</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>807971967</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>-58.405749</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-34.58224</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6275,6 +6275,138 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>6357</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>7/7/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BACACAY 3088</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>808036196</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>-502</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>7/7/2025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tagle 2562</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>808036198</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6336,10 +6336,22 @@
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>-58.473179</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-34.629138</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6402,10 +6414,178 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>-58.400188</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-34.583882</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>6377</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>GUARDIA VIEJA 4377</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>808099347</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>-58.426322</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-34.600097</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>6383</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>808099320</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>-58.448523</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-34.62452</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,17 +518,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4/4/2024</t>
+          <t>3/7/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1378</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>784804268</t>
+          <t>782794907</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -548,17 +548,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Nodo transferido, retirar columna</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.406882</v>
+        <v>-58.405474</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.588287</v>
+        <v>-34.593608</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -596,17 +596,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>4/4/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>784804268</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.40589</v>
+        <v>-58.406882</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.584156</v>
+        <v>-34.588287</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -674,27 +674,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -733,46 +733,46 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.498448</v>
+        <v>-58.40589</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.595287</v>
+        <v>-34.584156</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -797,60 +797,60 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.41606</v>
+        <v>-58.498448</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.599935</v>
+        <v>-34.595287</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -875,28 +875,28 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.413803</v>
+        <v>-58.41606</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.590308</v>
+        <v>-34.599935</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -908,27 +908,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -953,24 +953,24 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.432085</v>
+        <v>-58.413803</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.60178</v>
+        <v>-34.590308</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inclinado En el form cargaron foto de otro caso</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1045,14 +1045,14 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.378613</v>
+        <v>-58.432085</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.6349</v>
+        <v>-34.60178</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1064,27 +1064,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1123,14 +1123,14 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.426169</v>
+        <v>-58.378613</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.579697</v>
+        <v>-34.6349</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1142,27 +1142,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1187,28 +1187,28 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.425997</v>
+        <v>-58.426169</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.620454</v>
+        <v>-34.579697</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1220,17 +1220,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.428283</v>
+        <v>-58.425997</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.601207</v>
+        <v>-34.620454</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1298,27 +1298,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1357,14 +1357,14 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.443626</v>
+        <v>-58.428283</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.621032</v>
+        <v>-34.601207</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1376,27 +1376,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1435,46 +1435,46 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.450789</v>
+        <v>-58.443626</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.577949</v>
+        <v>-34.621032</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1513,46 +1513,46 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.421741</v>
+        <v>-58.450789</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.584789</v>
+        <v>-34.577949</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.447022</v>
+        <v>-58.421741</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.575873</v>
+        <v>-34.584789</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1610,27 +1610,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1669,14 +1669,14 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.440625</v>
+        <v>-58.447022</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.625499</v>
+        <v>-34.575873</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1688,27 +1688,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.435755</v>
+        <v>-58.440625</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.621286</v>
+        <v>-34.625499</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1766,27 +1766,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1825,46 +1825,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.400156</v>
+        <v>-58.496935</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.631369</v>
+        <v>-34.599084</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1903,14 +1903,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.402062</v>
+        <v>-58.435755</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.635143</v>
+        <v>-34.621286</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1922,27 +1922,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.443039</v>
+        <v>-58.400156</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.612262</v>
+        <v>-34.631369</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2000,27 +2000,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2050,55 +2050,55 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.506348</v>
+        <v>-58.402062</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.607461</v>
+        <v>-34.635143</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2137,46 +2137,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.496255</v>
+        <v>-58.443039</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.650599</v>
+        <v>-34.612262</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2211,50 +2211,50 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.371855</v>
+        <v>-58.506348</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.646958</v>
+        <v>-34.607461</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2293,46 +2293,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.403583</v>
+        <v>-58.496255</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.591604</v>
+        <v>-34.650599</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2347,12 +2347,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2371,14 +2371,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.439791</v>
+        <v>-58.371855</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.61969</v>
+        <v>-34.646958</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2390,27 +2390,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2425,17 +2425,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2445,50 +2445,50 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.485232</v>
+        <v>-58.403583</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.611573</v>
+        <v>-34.591604</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2527,14 +2527,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.445131</v>
+        <v>-58.439791</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.572117</v>
+        <v>-34.61969</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2546,27 +2546,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2576,14 +2576,10 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Columna corroída en su base</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
           <t>1</t>
@@ -2596,7 +2592,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2605,14 +2601,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.425764</v>
+        <v>-58.483821</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.604359</v>
+        <v>-34.677698</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2624,27 +2620,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2659,7 +2655,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2679,50 +2675,50 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.439751</v>
+        <v>-58.485232</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.609908</v>
+        <v>-34.611573</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2737,7 +2733,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2747,12 +2743,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2761,14 +2757,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.43607</v>
+        <v>-58.445131</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.61926</v>
+        <v>-34.572117</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2780,27 +2776,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2815,7 +2811,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2839,14 +2835,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.375515</v>
+        <v>-58.425764</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.634393</v>
+        <v>-34.604359</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2858,27 +2854,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2893,7 +2889,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2903,7 +2899,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2917,46 +2913,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.451203</v>
+        <v>-58.439751</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.576561</v>
+        <v>-34.609908</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2971,7 +2967,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2981,7 +2977,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2995,14 +2991,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.415839</v>
+        <v>-58.43607</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.599291</v>
+        <v>-34.61926</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3014,27 +3010,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3049,7 +3045,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3073,46 +3069,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.440177</v>
+        <v>-58.375515</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.56291</v>
+        <v>-34.634393</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3127,7 +3123,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3151,46 +3147,46 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.469148</v>
+        <v>-58.451203</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.687883</v>
+        <v>-34.576561</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3205,7 +3201,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3220,7 +3216,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3229,10 +3225,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.395063</v>
+        <v>-58.415839</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.606257</v>
+        <v>-34.599291</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3248,27 +3244,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3283,7 +3279,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3293,7 +3289,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3307,46 +3303,46 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.429977</v>
+        <v>-58.440177</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.615514</v>
+        <v>-34.56291</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3361,7 +3357,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3371,7 +3367,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3385,14 +3381,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.421623</v>
+        <v>-58.469148</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.614541</v>
+        <v>-34.687883</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3404,27 +3400,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3439,7 +3435,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3463,14 +3459,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.416562</v>
+        <v>-58.395063</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.590589</v>
+        <v>-34.606257</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3482,27 +3478,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3517,7 +3513,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3527,7 +3523,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3541,10 +3537,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.429972</v>
+        <v>-58.429977</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.632042</v>
+        <v>-34.615514</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3560,27 +3556,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3595,7 +3591,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3605,7 +3601,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3619,26 +3615,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.47888</v>
+        <v>-58.421623</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.571108</v>
+        <v>-34.614541</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3648,17 +3644,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3673,7 +3669,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3688,7 +3684,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3697,14 +3693,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.443196</v>
+        <v>-58.416562</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.618534</v>
+        <v>-34.590589</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3716,7 +3712,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3726,17 +3722,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3751,7 +3747,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3766,7 +3762,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3775,10 +3771,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.422268</v>
+        <v>-58.429972</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.627754</v>
+        <v>-34.632042</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3794,7 +3790,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3804,17 +3800,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3829,7 +3825,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3844,7 +3840,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3853,26 +3849,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.423148</v>
+        <v>-58.47888</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.576964</v>
+        <v>-34.571108</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3882,17 +3878,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3907,7 +3903,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3927,50 +3923,50 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.51232</v>
+        <v>-58.443196</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.595637</v>
+        <v>-34.618534</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3985,7 +3981,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4000,7 +3996,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4009,46 +4005,46 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.483104</v>
+        <v>-58.422268</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.572353</v>
+        <v>-34.627754</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4063,7 +4059,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4073,60 +4069,60 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.483927</v>
+        <v>-58.423148</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.570689</v>
+        <v>-34.576964</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4136,17 +4132,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4156,7 +4152,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4165,46 +4161,46 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.501766</v>
+        <v>-58.406585</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.574369</v>
+        <v>-34.592933</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4219,7 +4215,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4239,50 +4235,50 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.467789</v>
+        <v>-58.51232</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.68463</v>
+        <v>-34.595637</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4297,7 +4293,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4312,7 +4308,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4321,46 +4317,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.423551</v>
+        <v>-58.483104</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.581258</v>
+        <v>-34.572353</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4375,7 +4371,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4385,7 +4381,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4395,50 +4391,50 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.468182</v>
+        <v>-58.483927</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.685231</v>
+        <v>-34.570689</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4453,7 +4449,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4473,50 +4469,50 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.477944</v>
+        <v>-58.501766</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.675149</v>
+        <v>-34.574369</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4531,7 +4527,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4555,10 +4551,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.4212</v>
+        <v>-58.467789</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.623575</v>
+        <v>-34.68463</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4574,27 +4570,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4609,7 +4605,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4619,60 +4615,60 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.487371</v>
+        <v>-58.423551</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.640099</v>
+        <v>-34.581258</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4687,7 +4683,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4711,14 +4707,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.425845</v>
+        <v>-58.468182</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.616562</v>
+        <v>-34.685231</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4730,27 +4726,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4765,7 +4761,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4785,28 +4781,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.477944</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.675149</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4816,7 +4824,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4831,7 +4839,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4855,14 +4863,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.416477</v>
+        <v>-58.4212</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.61303</v>
+        <v>-34.623575</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4874,27 +4882,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4909,7 +4917,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4919,7 +4927,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4929,40 +4937,40 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.427424</v>
+        <v>-58.487371</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.601217</v>
+        <v>-34.640099</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4972,7 +4980,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4987,7 +4995,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5011,10 +5019,10 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.426665</v>
+        <v>-58.425845</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.598019</v>
+        <v>-34.616562</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5030,17 +5038,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5050,7 +5058,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5065,7 +5073,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5088,47 +5096,35 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>-58.425478</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-34.601865</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5143,7 +5139,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5153,7 +5149,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5167,10 +5163,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.440448</v>
+        <v>-58.416477</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.611223</v>
+        <v>-34.61303</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5186,17 +5182,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5206,7 +5202,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5221,7 +5217,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5231,7 +5227,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5245,10 +5241,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.422775</v>
+        <v>-58.427424</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.604135</v>
+        <v>-34.601217</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5264,27 +5260,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5309,7 +5305,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5319,50 +5315,50 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.497698</v>
+        <v>-58.426665</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.612038</v>
+        <v>-34.598019</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5377,7 +5373,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5387,7 +5383,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5397,18 +5393,18 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.44848</v>
+        <v>-58.425478</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.581338</v>
+        <v>-34.601865</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5420,27 +5416,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5455,7 +5451,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5465,7 +5461,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5475,50 +5471,50 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.448496</v>
+        <v>-58.440448</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.58182</v>
+        <v>-34.611223</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5533,7 +5529,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5543,12 +5539,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5557,10 +5553,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.400169</v>
+        <v>-58.422775</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.617784</v>
+        <v>-34.604135</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5576,27 +5572,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5611,7 +5607,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5621,7 +5617,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5631,50 +5627,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.425296</v>
+        <v>-58.497698</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.578706</v>
+        <v>-34.612038</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5689,7 +5685,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5699,7 +5695,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5709,50 +5705,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.474467</v>
+        <v>-58.44848</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.624161</v>
+        <v>-34.581338</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5767,7 +5763,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5777,7 +5773,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5787,40 +5783,40 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.432644</v>
+        <v>-58.448496</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.595434</v>
+        <v>-34.58182</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5830,7 +5826,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5845,7 +5841,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5860,7 +5856,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5869,10 +5865,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.401827</v>
+        <v>-58.400169</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.617667</v>
+        <v>-34.617784</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5888,27 +5884,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5923,7 +5919,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5947,14 +5943,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.450359</v>
+        <v>-58.425296</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.643582</v>
+        <v>-34.578706</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5966,17 +5962,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5986,7 +5982,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6001,7 +5997,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6025,46 +6021,46 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.459566</v>
+        <v>-58.474467</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.634615</v>
+        <v>-34.624161</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6079,7 +6075,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6089,7 +6085,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6103,14 +6099,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.437378</v>
+        <v>-58.432644</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.62116</v>
+        <v>-34.595434</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -6122,27 +6118,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6157,7 +6153,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6172,7 +6168,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6181,14 +6177,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.413941</v>
+        <v>-58.401827</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.57698</v>
+        <v>-34.617667</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6200,27 +6196,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6235,17 +6231,17 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6255,18 +6251,18 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.405749</v>
+        <v>-58.450359</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.58224</v>
+        <v>-34.643582</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6278,17 +6274,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6298,7 +6294,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6313,7 +6309,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Columna con base corroida oxidada</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6323,7 +6319,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6333,50 +6329,50 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.473179</v>
+        <v>-58.459566</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.629138</v>
+        <v>-34.634615</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6391,7 +6387,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6406,7 +6402,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6415,14 +6411,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.400188</v>
+        <v>-58.437378</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.583882</v>
+        <v>-34.62116</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6434,27 +6430,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6469,7 +6465,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6493,14 +6489,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.426322</v>
+        <v>-58.413941</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.600097</v>
+        <v>-34.57698</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6512,76 +6508,388 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>-501</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Cabello 3107</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>807971967</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>-58.405749</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-34.58224</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>6357</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>7/7/2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BACACAY 3088</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>808036196</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>-58.473179</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-34.629138</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>-502</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>7/7/2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tagle 2562</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>808036198</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>-58.400188</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-34.583882</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>6377</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>GUARDIA VIEJA 4377</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>808099347</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>-58.426322</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-34.600097</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
           <t>6383</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>7/8/2025</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>808099320</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="M83" t="n">
         <v>-58.448523</v>
       </c>
-      <c r="N79" t="n">
+      <c r="N83" t="n">
         <v>-34.62452</v>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>Boedo</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,6 +6895,80 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>-506</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>7/11/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Gervasio Espinosa 591</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>808150511</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -556,10 +556,8 @@
           <t>Nodo transferido, retirar columna</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -634,10 +632,8 @@
           <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -712,10 +708,8 @@
           <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -790,10 +784,8 @@
           <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -868,10 +860,8 @@
           <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -946,10 +936,8 @@
           <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1024,10 +1012,8 @@
           <t>Inclinado</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1102,10 +1088,8 @@
           <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I9" t="n">
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1180,10 +1164,8 @@
           <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1258,10 +1240,8 @@
           <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1336,10 +1316,8 @@
           <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I12" t="n">
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1414,10 +1392,8 @@
           <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1492,10 +1468,8 @@
           <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I14" t="n">
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1570,10 +1544,8 @@
           <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1648,10 +1620,8 @@
           <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I16" t="n">
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1726,10 +1696,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1804,10 +1772,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I18" t="n">
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1882,10 +1848,8 @@
           <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I19" t="n">
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1960,10 +1924,8 @@
           <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2038,10 +2000,8 @@
           <t>Relevar</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I21" t="n">
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2116,10 +2076,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I22" t="n">
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2194,10 +2152,8 @@
           <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I23" t="n">
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2272,10 +2228,8 @@
           <t>Podrida en la base</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I24" t="n">
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2350,10 +2304,8 @@
           <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I25" t="n">
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2428,10 +2380,8 @@
           <t>Base picada</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I26" t="n">
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2506,10 +2456,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I27" t="n">
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2580,10 +2528,8 @@
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I28" t="n">
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2658,10 +2604,8 @@
           <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I29" t="n">
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2736,10 +2680,8 @@
           <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I30" t="n">
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2814,10 +2756,8 @@
           <t>Columna corroída en su base</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I31" t="n">
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2892,10 +2832,8 @@
           <t>Aplomador</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I32" t="n">
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2970,10 +2908,8 @@
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I33" t="n">
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -3048,10 +2984,8 @@
           <t>Pegar los ductos al prfv</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I34" t="n">
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3126,10 +3060,8 @@
           <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I35" t="n">
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3204,10 +3136,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I36" t="n">
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3282,10 +3212,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I37" t="n">
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3360,10 +3288,8 @@
           <t>Columna corroida en su base</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I38" t="n">
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3438,10 +3364,8 @@
           <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I39" t="n">
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3516,10 +3440,8 @@
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I40" t="n">
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3594,10 +3516,8 @@
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I41" t="n">
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3672,10 +3592,8 @@
           <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I42" t="n">
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3750,10 +3668,8 @@
           <t>Chocada en accidente</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I43" t="n">
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3828,10 +3744,8 @@
           <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I44" t="n">
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3906,10 +3820,8 @@
           <t>Columna inclinada con base corroída</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I45" t="n">
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3984,10 +3896,8 @@
           <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I46" t="n">
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -4062,10 +3972,8 @@
           <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I47" t="n">
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4140,10 +4048,8 @@
           <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I48" t="n">
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4218,10 +4124,8 @@
           <t>Cambiar</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I49" t="n">
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4296,10 +4200,8 @@
           <t>Columna con base corroída</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I50" t="n">
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4374,10 +4276,8 @@
           <t>Columna inclinada</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I51" t="n">
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4452,10 +4352,8 @@
           <t>Columna con base corroída</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I52" t="n">
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4530,10 +4428,8 @@
           <t>Columna con base corroída</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I53" t="n">
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4608,10 +4504,8 @@
           <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I54" t="n">
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4686,10 +4580,8 @@
           <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I55" t="n">
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4764,10 +4656,8 @@
           <t>COLUMNA INCLINADA</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I56" t="n">
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4842,10 +4732,8 @@
           <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I57" t="n">
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4920,10 +4808,8 @@
           <t>Poste inclinado</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I58" t="n">
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4998,10 +4884,8 @@
           <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I59" t="n">
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -5076,10 +4960,8 @@
           <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I60" t="n">
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -5142,10 +5024,8 @@
           <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I61" t="n">
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5220,10 +5100,8 @@
           <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I62" t="n">
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5298,10 +5176,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I63" t="n">
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5376,10 +5252,8 @@
           <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I64" t="n">
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5454,10 +5328,8 @@
           <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I65" t="n">
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5532,10 +5404,8 @@
           <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I66" t="n">
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5610,10 +5480,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I67" t="n">
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5688,10 +5556,8 @@
           <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I68" t="n">
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5766,10 +5632,8 @@
           <t>Reparar rienda</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I69" t="n">
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5844,10 +5708,8 @@
           <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I70" t="n">
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5922,10 +5784,8 @@
           <t>Inclinada posible cambio</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I71" t="n">
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -6000,10 +5860,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I72" t="n">
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -6078,10 +5936,8 @@
           <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I73" t="n">
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6156,10 +6012,8 @@
           <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I74" t="n">
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6234,10 +6088,8 @@
           <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I75" t="n">
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6312,10 +6164,8 @@
           <t>Columna con base corroida oxidada</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I76" t="n">
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6390,10 +6240,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I77" t="n">
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6468,10 +6316,8 @@
           <t>Picada e inclinada</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I78" t="n">
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6546,10 +6392,8 @@
           <t>Aplomar</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I79" t="n">
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6624,10 +6468,8 @@
           <t>Reparar rienda</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I80" t="n">
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6702,10 +6544,8 @@
           <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I81" t="n">
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6780,10 +6620,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I82" t="n">
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6858,10 +6696,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I83" t="n">
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6936,10 +6772,8 @@
           <t>Picada</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I84" t="n">
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,17 +2266,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2323,14 +2323,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.371855</v>
+        <v>-58.403583</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.646958</v>
+        <v>-34.591604</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2342,27 +2342,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2377,11 +2377,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2399,14 +2399,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.403583</v>
+        <v>-58.439791</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.591604</v>
+        <v>-34.61969</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2428,17 +2428,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2448,14 +2448,10 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>1</v>
       </c>
@@ -2466,7 +2462,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2475,10 +2471,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.439791</v>
+        <v>-58.483821</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.61969</v>
+        <v>-34.677698</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2494,27 +2490,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2524,69 +2520,73 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+        </is>
+      </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.483821</v>
+        <v>-58.485232</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.677698</v>
+        <v>-34.611573</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2609,60 +2609,60 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.485232</v>
+        <v>-58.445131</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.611573</v>
+        <v>-34.572117</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2699,14 +2699,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.445131</v>
+        <v>-58.425764</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.572117</v>
+        <v>-34.604359</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2718,27 +2718,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.425764</v>
+        <v>-58.439751</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.604359</v>
+        <v>-34.609908</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2851,14 +2851,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.439751</v>
+        <v>-58.43607</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.609908</v>
+        <v>-34.61926</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2870,7 +2870,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2880,17 +2880,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2927,14 +2927,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.43607</v>
+        <v>-58.375515</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.61926</v>
+        <v>-34.634393</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2946,27 +2946,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3003,46 +3003,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.375515</v>
+        <v>-58.451203</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.634393</v>
+        <v>-34.576561</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3079,46 +3079,46 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.451203</v>
+        <v>-58.415839</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.576561</v>
+        <v>-34.599291</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3155,46 +3155,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.415839</v>
+        <v>-58.440177</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.599291</v>
+        <v>-34.56291</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3231,46 +3231,46 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.440177</v>
+        <v>-58.469148</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.56291</v>
+        <v>-34.687883</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3307,14 +3307,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3326,7 +3326,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3336,17 +3336,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3369,12 +3369,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3383,14 +3383,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3402,7 +3402,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3412,17 +3412,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3459,14 +3459,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3478,27 +3478,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3535,14 +3535,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.421623</v>
+        <v>-58.416562</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.614541</v>
+        <v>-34.590589</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3554,7 +3554,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3564,17 +3564,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3611,14 +3611,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.416562</v>
+        <v>-58.429972</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.590589</v>
+        <v>-34.632042</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3630,7 +3630,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3640,17 +3640,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3687,26 +3687,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.429972</v>
+        <v>-58.47888</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.632042</v>
+        <v>-34.571108</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3716,17 +3716,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3763,26 +3763,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.47888</v>
+        <v>-58.443196</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.571108</v>
+        <v>-34.618534</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3792,17 +3792,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3839,14 +3839,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.443196</v>
+        <v>-58.422268</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.618534</v>
+        <v>-34.627754</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3858,7 +3858,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3868,17 +3868,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3915,14 +3915,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3964,16 +3964,16 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3991,14 +3991,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.423148</v>
+        <v>-58.406585</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.576964</v>
+        <v>-34.592933</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4010,7 +4010,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4020,17 +4020,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4040,16 +4040,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4058,55 +4058,55 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.406585</v>
+        <v>-58.51232</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.592933</v>
+        <v>-34.595637</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4139,18 +4139,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.51232</v>
+        <v>-58.483104</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.595637</v>
+        <v>-34.572353</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4162,27 +4162,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4215,14 +4215,14 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.483104</v>
+        <v>-58.483927</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.572353</v>
+        <v>-34.570689</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4238,17 +4238,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4291,18 +4291,18 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.483927</v>
+        <v>-58.501766</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.570689</v>
+        <v>-34.574369</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4314,7 +4314,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4324,17 +4324,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4371,26 +4371,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.501766</v>
+        <v>-58.467789</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.574369</v>
+        <v>-34.68463</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4400,17 +4400,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4447,14 +4447,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.467789</v>
+        <v>-58.423551</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.68463</v>
+        <v>-34.581258</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4466,27 +4466,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4523,14 +4523,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.423551</v>
+        <v>-58.468182</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.581258</v>
+        <v>-34.685231</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4542,7 +4542,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4595,14 +4595,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4628,17 +4628,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4671,14 +4671,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4694,27 +4694,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4747,30 +4747,30 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.4212</v>
+        <v>-58.487371</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.623575</v>
+        <v>-34.640099</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4780,17 +4780,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4823,30 +4823,30 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.487371</v>
+        <v>-58.425845</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.640099</v>
+        <v>-34.616562</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4902,37 +4902,25 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>-58.425845</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-34.616562</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4942,7 +4930,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4957,7 +4945,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4978,15 +4966,27 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>-58.416477</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-34.61303</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5043,10 +5043,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.416477</v>
+        <v>-58.427424</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.61303</v>
+        <v>-34.601217</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.427424</v>
+        <v>-58.426665</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.601217</v>
+        <v>-34.598019</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5195,10 +5195,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.426665</v>
+        <v>-58.425478</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.598019</v>
+        <v>-34.601865</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5214,27 +5214,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5271,10 +5271,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.425478</v>
+        <v>-58.440448</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.601865</v>
+        <v>-34.611223</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5290,27 +5290,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.440448</v>
+        <v>-58.422775</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.611223</v>
+        <v>-34.604135</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5366,27 +5366,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5419,50 +5419,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.422775</v>
+        <v>-58.497698</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.604135</v>
+        <v>-34.612038</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5499,26 +5499,26 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.497698</v>
+        <v>-58.44848</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.612038</v>
+        <v>-34.581338</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5575,26 +5575,26 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.44848</v>
+        <v>-58.448496</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.581338</v>
+        <v>-34.58182</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5604,17 +5604,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5637,60 +5637,60 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.448496</v>
+        <v>-58.400169</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.58182</v>
+        <v>-34.617784</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5727,14 +5727,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.400169</v>
+        <v>-58.425296</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.617784</v>
+        <v>-34.578706</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5746,27 +5746,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5803,46 +5803,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.578706</v>
+        <v>-34.624161</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5879,46 +5879,46 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.474467</v>
+        <v>-58.432644</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.624161</v>
+        <v>-34.595434</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5941,12 +5941,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5955,14 +5955,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.432644</v>
+        <v>-58.401827</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.595434</v>
+        <v>-34.617667</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5974,27 +5974,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6031,14 +6031,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.401827</v>
+        <v>-58.450359</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.617667</v>
+        <v>-34.643582</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6050,7 +6050,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Columna con base corroida oxidada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6107,10 +6107,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.450359</v>
+        <v>-58.459566</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.643582</v>
+        <v>-34.634615</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6136,17 +6136,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6183,10 +6183,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.459566</v>
+        <v>-58.437378</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.634615</v>
+        <v>-34.62116</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6202,27 +6202,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6259,14 +6259,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6278,7 +6278,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6313,15 +6313,15 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6331,18 +6331,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.413941</v>
+        <v>-58.405749</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.57698</v>
+        <v>-34.58224</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6354,27 +6354,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6389,15 +6389,15 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6411,26 +6411,26 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6440,17 +6440,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6473,60 +6473,60 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6563,14 +6563,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.400188</v>
+        <v>-58.426322</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.583882</v>
+        <v>-34.600097</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6582,7 +6582,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6592,17 +6592,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6639,14 +6639,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6658,17 +6658,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Gervasio Espinosa 591</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6714,90 +6714,14 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>-58.448523</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-34.62452</v>
-      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>-506</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>7/11/2025</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Gervasio Espinosa 591</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>808150511</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>No ubicado</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
         <is>
           <t>No clasificado, consultar con mantenimiento</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,17 +2266,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2323,14 +2323,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.403583</v>
+        <v>-58.371855</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.591604</v>
+        <v>-34.646958</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2342,27 +2342,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2377,11 +2377,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2399,14 +2399,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.439791</v>
+        <v>-58.403583</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.61969</v>
+        <v>-34.591604</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2428,17 +2428,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2448,10 +2448,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
@@ -2462,7 +2466,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2471,10 +2475,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.483821</v>
+        <v>-58.439791</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.677698</v>
+        <v>-34.61969</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2490,27 +2494,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2520,73 +2524,69 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.485232</v>
+        <v>-58.483821</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.611573</v>
+        <v>-34.677698</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2609,60 +2609,60 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.445131</v>
+        <v>-58.485232</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.572117</v>
+        <v>-34.611573</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2699,14 +2699,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.425764</v>
+        <v>-58.445131</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.604359</v>
+        <v>-34.572117</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2718,27 +2718,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.439751</v>
+        <v>-58.425764</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.609908</v>
+        <v>-34.604359</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2851,14 +2851,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.43607</v>
+        <v>-58.439751</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.61926</v>
+        <v>-34.609908</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2870,7 +2870,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2880,17 +2880,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2927,14 +2927,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2946,27 +2946,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3003,46 +3003,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.451203</v>
+        <v>-58.375515</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.576561</v>
+        <v>-34.634393</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3079,46 +3079,46 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3155,46 +3155,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.440177</v>
+        <v>-58.415839</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.56291</v>
+        <v>-34.599291</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3231,46 +3231,46 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.469148</v>
+        <v>-58.440177</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.687883</v>
+        <v>-34.56291</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3307,14 +3307,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.395063</v>
+        <v>-58.469148</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.606257</v>
+        <v>-34.687883</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3326,7 +3326,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3336,17 +3336,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3369,12 +3369,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3383,14 +3383,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.429977</v>
+        <v>-58.395063</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.615514</v>
+        <v>-34.606257</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3402,7 +3402,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3412,17 +3412,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3459,14 +3459,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3478,27 +3478,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3535,14 +3535,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.416562</v>
+        <v>-58.421623</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.590589</v>
+        <v>-34.614541</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3554,7 +3554,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3564,17 +3564,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3611,14 +3611,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.429972</v>
+        <v>-58.416562</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.632042</v>
+        <v>-34.590589</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3630,7 +3630,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3640,17 +3640,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3687,26 +3687,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.47888</v>
+        <v>-58.429972</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.571108</v>
+        <v>-34.632042</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3716,17 +3716,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3763,26 +3763,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.443196</v>
+        <v>-58.47888</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.618534</v>
+        <v>-34.571108</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3792,17 +3792,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3839,14 +3839,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.422268</v>
+        <v>-58.443196</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.627754</v>
+        <v>-34.618534</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3858,7 +3858,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3868,17 +3868,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3915,14 +3915,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.423148</v>
+        <v>-58.422268</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.576964</v>
+        <v>-34.627754</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3964,16 +3964,16 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3991,14 +3991,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.406585</v>
+        <v>-58.423148</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.592933</v>
+        <v>-34.576964</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4010,7 +4010,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4020,17 +4020,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4040,16 +4040,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4058,55 +4058,55 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.51232</v>
+        <v>-58.406585</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.595637</v>
+        <v>-34.592933</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4139,18 +4139,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4162,27 +4162,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4215,14 +4215,14 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4238,17 +4238,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4291,18 +4291,18 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.501766</v>
+        <v>-58.483927</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.574369</v>
+        <v>-34.570689</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4314,7 +4314,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4324,17 +4324,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4371,26 +4371,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4400,17 +4400,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4447,14 +4447,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.423551</v>
+        <v>-58.467789</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.581258</v>
+        <v>-34.68463</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4466,27 +4466,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4523,14 +4523,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.468182</v>
+        <v>-58.423551</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.685231</v>
+        <v>-34.581258</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4542,7 +4542,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4595,14 +4595,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4628,17 +4628,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4671,14 +4671,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.4212</v>
+        <v>-58.477944</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.623575</v>
+        <v>-34.675149</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4694,27 +4694,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4747,30 +4747,30 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.487371</v>
+        <v>-58.4212</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.640099</v>
+        <v>-34.623575</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4780,17 +4780,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4827,14 +4827,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.425845</v>
+        <v>-58.362579</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.616562</v>
+        <v>-34.635096</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4846,7 +4846,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4856,17 +4856,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4899,28 +4899,40 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-58.487371</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-34.640099</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4930,7 +4942,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4945,7 +4957,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4967,10 +4979,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.416477</v>
+        <v>-58.425845</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.61303</v>
+        <v>-34.616562</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4986,17 +4998,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>Av. San Juan 3960</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5006,7 +5018,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5021,7 +5033,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5042,27 +5054,15 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>-58.427424</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-34.601217</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.426665</v>
+        <v>-58.416477</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.598019</v>
+        <v>-34.61303</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5195,10 +5195,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.425478</v>
+        <v>-58.427424</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.601865</v>
+        <v>-34.601217</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5214,27 +5214,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5271,10 +5271,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.440448</v>
+        <v>-58.426665</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.611223</v>
+        <v>-34.598019</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5290,17 +5290,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.422775</v>
+        <v>-58.425478</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.604135</v>
+        <v>-34.601865</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5366,27 +5366,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5419,50 +5419,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.497698</v>
+        <v>-58.440448</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.612038</v>
+        <v>-34.611223</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5495,18 +5495,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.44848</v>
+        <v>-58.422775</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.581338</v>
+        <v>-34.604135</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5518,27 +5518,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5575,14 +5575,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.448496</v>
+        <v>-58.497698</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.58182</v>
+        <v>-34.612038</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5594,7 +5594,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5604,17 +5604,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5637,28 +5637,28 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.400169</v>
+        <v>-58.44848</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.617784</v>
+        <v>-34.581338</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5670,27 +5670,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5723,50 +5723,50 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.425296</v>
+        <v>-58.448496</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.578706</v>
+        <v>-34.58182</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5803,46 +5803,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.474467</v>
+        <v>-58.400169</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.624161</v>
+        <v>-34.617784</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5879,10 +5879,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.432644</v>
+        <v>-58.425296</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.595434</v>
+        <v>-34.578706</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5898,27 +5898,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5955,46 +5955,46 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.401827</v>
+        <v>-58.474467</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.617667</v>
+        <v>-34.624161</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6031,14 +6031,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.450359</v>
+        <v>-58.432644</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.643582</v>
+        <v>-34.595434</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6050,27 +6050,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6107,14 +6107,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.459566</v>
+        <v>-58.401827</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.634615</v>
+        <v>-34.617667</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6126,7 +6126,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6136,17 +6136,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6183,10 +6183,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.437378</v>
+        <v>-58.450359</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.62116</v>
+        <v>-34.643582</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6202,27 +6202,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Columna con base corroida oxidada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6259,14 +6259,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.413941</v>
+        <v>-58.459566</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.57698</v>
+        <v>-34.634615</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6278,27 +6278,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6313,15 +6313,15 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6331,18 +6331,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.405749</v>
+        <v>-58.437378</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.58224</v>
+        <v>-34.62116</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6354,27 +6354,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6407,40 +6407,40 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.473179</v>
+        <v>-58.413941</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.629138</v>
+        <v>-34.57698</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6465,32 +6465,32 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.400188</v>
+        <v>-58.405749</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.583882</v>
+        <v>-34.58224</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6506,27 +6506,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6559,50 +6559,50 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.426322</v>
+        <v>-58.473179</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.600097</v>
+        <v>-34.629138</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6639,14 +6639,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.448523</v>
+        <v>-58.400188</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.62452</v>
+        <v>-34.583882</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6658,72 +6658,300 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>6377</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>GUARDIA VIEJA 4377</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>808099347</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>-58.426322</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-34.600097</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>6383</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>808099320</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>-58.448523</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-34.62452</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>-506</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>7/11/2025</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Gervasio Espinosa 591</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>808150511</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
         <is>
           <t>No ubicado</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>-511</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Carlos Melo 491</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>808194932</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>-58.363292</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-34.642869</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Gervasio Espinosa 591</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6866,16 +6866,20 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>-58.449</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-34.616077</v>
+      </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>No ubicado</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>No clasificado, consultar con mantenimiento</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -6950,6 +6954,82 @@
         </is>
       </c>
       <c r="P86" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>-513</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7/15/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Montes de Oca 1809</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>808240768</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>-58.372941</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-34.648341</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
